--- a/news_data/2021_10.xlsx
+++ b/news_data/2021_10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,24 +22,75 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>SR, 제주도관광협회와 업무협약 체결</t>
+  </si>
+  <si>
+    <t>홍현희♥제이쓴, 제주도 여행 중 커플 화보 찍었네 "관광지가면 이런 거 하나...</t>
+  </si>
+  <si>
+    <t>LA언니 윤현숙, 제주도에서도 힙함 가득…변정수 "효도 관광 간 느낌"</t>
+  </si>
+  <si>
+    <t>롯데관광개발, 제주도 우수제품 판매… "6차산업 진흥에 앞장설 것"</t>
+  </si>
+  <si>
+    <t>지역관광 ‘스마트 성숙도’ 광역은 제주도, 기초는 서울 강남구 1위</t>
+  </si>
+  <si>
+    <t>제주도·스페인, 관광·문화 교류 활성화 ‘맞손’</t>
+  </si>
+  <si>
+    <t>"제일가고 싶은 곳 제주"...제주도, 관광 홍보마케팅 진행</t>
+  </si>
+  <si>
+    <t>제주도 내 녹색소비문화 확산… ‘녹색관광지 만들기’ 추진</t>
+  </si>
+  <si>
+    <t>제주도의회 "관광객에 환경보전기여금 부과해야" 제기</t>
+  </si>
+  <si>
+    <t>‘오징어게임’서 언급… 제주도, 한류열풍 타고 관광 마케팅 활발</t>
+  </si>
+  <si>
+    <t>KT·제주도·제주관광공사, 디지코캠핑 인 제주 진행</t>
+  </si>
+  <si>
+    <t>[제주소식] 제주도, 2021년 하반기 우수관광사업체 공모</t>
+  </si>
+  <si>
+    <t>제주도 관광약자접근성안내센터, 만족도조사 실시</t>
+  </si>
+  <si>
+    <t>제주도 경관 해치는 주범 물어보니… 도민 “고층 건축물” 관광객 “불법주차...</t>
+  </si>
+  <si>
+    <t>효성티앤씨, 제주도·제주관광공사와 '해변 친환경 프로젝트' 참여</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 23일 비치클린 '줍젠' 프로젝트 실시</t>
+  </si>
+  <si>
+    <t>제주도의회,우수 문화도시, 관광도시 1번지 뒤에는 송악산 해안절벽 붕괴 8년...</t>
+  </si>
+  <si>
+    <t>10월 대체연휴 제주도 관광객 몰린다 | 제주의 첫 단풍은 언제?</t>
+  </si>
+  <si>
+    <t>제주도-제주관광공사, 친환경 제로웨이스트 캠페인 진행</t>
+  </si>
+  <si>
+    <t>제주도의회 문화관광체육위원회, 행정사무감사에 앞서 문화현장 점검</t>
+  </si>
+  <si>
+    <t>제주도, 2021 하반기 우수관광사업체 공모</t>
+  </si>
+  <si>
     <t>제주도, 2021년 하반기 우수관광사업체 공모...27일까지 접수</t>
   </si>
   <si>
-    <t>제주도, 2021 하반기 우수관광사업체 공모</t>
-  </si>
-  <si>
-    <t>제주도-제주관광공사, 친환경 제로웨이스트 캠페인 진행</t>
-  </si>
-  <si>
-    <t>10월 대체연휴 제주도 관광객 몰린다 | 제주의 첫 단풍은 언제?</t>
-  </si>
-  <si>
     <t>제주도-제주관광공사, 해양쓰레기 팝업 전시 '필터' 10일 개막</t>
   </si>
   <si>
-    <t>제주도의회 문화관광체육위원회, 행정사무감사에 앞서 문화현장 점검</t>
-  </si>
-  <si>
     <t>[전문] 안창남 제주도의회 문화관광체육위원장, 행정사무감사 임하는 각오</t>
   </si>
   <si>
@@ -52,25 +103,64 @@
     <t>제주도·제주관광공사, ‘2021 도전! J-스타트업’ 데모데이 개최</t>
   </si>
   <si>
-    <t>제주도, 2021년 하반기 우수관광사업체 공모...27일까지 접수 - 투어코리아 - No.1 여행·축제 뉴스 × 전체기사 이슈 전체 정책 지역 사회 피플 여행 전체 국내여행 해외여행 맛집멋집 리조트 펜션 휴양림 호텔레스토랑 Green Tour 여행사 축제 전체 국내인기축제 세계축제 라이프 전체 팁뉴스 문화 패션아웃도어 레포츠 의료관광 관광청 경제 최종편집 : 2022-10-04 11:11 (화) 처음으로 로그인 회원가입 facebook twitter rss post kakaoch instagram in-naver 전체기사 이슈 정책 지역 사회 피플 여행 국내여행 해외여행 맛집멋집 리조트 펜션 휴양림 호텔레스토랑 Green Tour 여행사 축제 국내인기축제 세계축제 라이프 팁뉴스 문화 패션아웃도어 레포츠 의료관광 관광청 경제 기사검색 검색 실시간 정조의 효심과 부국강병 꿈 227년 부활...수원화성문화제 7일 개막 거대 수호신 '진묘수', 공주시 금강에 떴다...인기 만발 고양시, 제20회 대한민국막걸리 축제’ 8~11일개최 대전시, ‘대전 0시 뮤직페스티벌’7~10일 열려 폐광지역 4개 시군 잇는 '운탄고도1330 걷는 길' 개통! 매혹적인 휴양지 발리서 보내는 오붓 달콤한 허니문! 제천한방바이오박람회,유명가수 무대공연 등 볼거리 풍성 곡성군, 남도 숙박 할인 BIG 이벤트 참여 업소 모집 10월 단양은 볼거리‧먹거리‧즐길거리 ‘풍성’ ‘파주시 관광사진 공모전’ 개최...4~7일 작품 접수 '하회선유줄불놀이 아름다움 관광객들 탄성' 음성군 통합 농산물 축제‘음성명작페스티벌’ 5일 개막 핫뉴스 "거 참 재밌네!"...오감이 흥겨운 안동국제탈춤페스티벌 10월엔 경남 축제·문화 따라 가을여행! 올 가을, 우리는 ‘백제문화제 판타지아’에 빠진다 부여의 맛·멋·흥 100% 즐기는 법 11~12월엔 초특가 항공권으로 일본·베트남·필리핀 알뜰여행을! 풍자와 해학 '음성품바축제' 관람객 북적 서울여행 인기...일본 최대 관광박람회서 서울홍보관 북적북적 풍성한 가을축제로 부산 매력에 빠져봐요! 감성 채워주는 공주 힐링스폿! 경주·광양·속초·진주·충주시 등 8곳 예비문화도시 지정 [포토] 핑크뮬리 유혹하는 함평 석두마을 26일부터 실외 마스크 전면 해제…실내는 유지 이전 다음 제주도, 2021년 하반기 우수관광사업체 공모...27일까지 접수 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 상태바 HOME 이슈 지역 제주도, 2021년 하반기 우수관광사업체 공모...27일까지 접수 김지혜 기자 승인 2021.10.05 12:10 댓글 0 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 URL복사 × 제주도청 제주도는 '2021년 하반기 우수관광사업체'를 공모한다. 이번 공모는 도내 우수 관광상품과 고품격 서비스를 두루 갖춘 관광사업체를 선발하기 위해 마련됐다. 신청 분야는 관광지·교통·숙박업·여행업·음식업 등 5개이며, 신청 대상은 도내에 사업장을 둔 업체 중 영업신고 후 1년 이상 지난 업체로, 8일부터 27일까지 접수한다. 우수관광사업체로 지정돼 2년이 되는 사업체는 신청을 통해 심사 후 재지정받을 수 있다. 자세한 내용은 제주도관광협회로 문의하면 된다. 저작권자 © 투어코리아 - No.1 여행·축제 뉴스 무단전재 및 재배포 금지 김지혜 기자 다른기사 보기 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 당신만 안 본 뉴스 "거 참 재밌네!"...오감이 흥겨운 안동국제탈춤페스티벌 10월엔 경남 축제·문화 따라 가을여행! 올 가을, 우리는 ‘백제문화제 판타지아’에 빠진다 부여의 맛·멋·흥 100% 즐기는 법 11~12월엔 초특가 항공권으로 일본·베트남·필리핀 알뜰여행을! 풍자와 해학 '음성품바축제' 관람객 북적 서울여행 인기...일본 최대 관광박람회서 서울홍보관 북적북적 "거 참 재밌네!"...오감이 흥겨운 안동국제탈춤페스티벌 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 에디터 초이스 ENTERTAINMENT ‘제2의 우영우’로 불리는 차기작 위해 연기대상 배우가 내린 결단 ENTERTAINMENT ‘김치 싸대기’ 맞고 대박났던 배우가 8년 만에 공개한 당시 상황 ENTERTAINMENT 새 드라마 촬영 중인 수지, 길거리에서 포착된 모습에 난리난 이유 BIZ 기아 쏘렌토 PHEV, 미국 가격은 7천만 원부터 시작 ENTERTAINMENT 내 꿈은 농구스타! 스크린이 아닌 코트에서 만날 뻔했던 배우들 TRIP 교동도의 새로운 이유, 강화 화개산 모노레일 ENTERTAINMENT 김정현, '가스라이팅 논란' 후 복귀작 '꼭두의 계절'...김정현의 계절 만들까 FOOD Find Dining | 엄선한 가을 보양식 투어코리아 Cover 145호 2022-10-01 구독신청 지난호보기 기사제보 광고문의 기자회원 신청 투어코리아 SNS 주요기사 정조의 효심과 부국강병 꿈 227년 부활...수원화성문화제 7일 개막 거대 수호신 '진묘수', 공주시 금강에 떴다...인기 만발 고양시, 제20회 대한민국막걸리 축제’ 8~11일개최 대전시, ‘대전 0시 뮤직페스티벌’7~10일 열려 폐광지역 4개 시군 잇는 '운탄고도1330 걷는 길' 개통! 매혹적인 휴양지 발리서 보내는 오붓 달콤한 허니문! 투어코리아가 만난사람 [인터뷰] 박일호 밀양시장 “관광객이 감동하는 밀양 만들기 위해 고민” 국내축제 정조의 효심과 부국강병 꿈 227년 부활...수원화성문화제 7일 개막 세계축제 진정한 미식가 축제 ‘싱가포르 푸드 페스티벌’ 팬데믹 이후 첫 대면 개최 국내여행 울산 태화강에서 ‘물억새군락지' 생태관광 즐겨요! 테마여행 올가을, 댕댕이와 크루즈 여행떠나요! 아시아 인스타그램 ‘좋아요’ 부르는 '힙한 홍콩 카페' 어디? 유럽 가을 낭만 더하는 이스탄불의 거리 탑3 미국·캐나다·중남미 배우 이기우 추천 캘리포니아 펫 프렌들리 여행지, '아빌라 비치' 중동·아프리카 로맨스 인 두바이? 사막에서 별빛 샤워, 관람차에서 야경 만끽! 오세아니아 '럭셔리 항공 투어'로 호주의 대자연 색다르게 즐겨봐! 전문가칼럼 [119기고] 공동주택 화재 안전은 피난설비 올바른 숙지부터 시작 최신뉴스 정조의 효심과 부국강병 꿈 227년 부활...수원화성문화제 7일 개막 거대 수호신 '진묘수', 공주시 금강에 떴다...인기 만발 고양시, 제20회 대한민국막걸리 축제’ 8~11일개최 대전시, ‘대전 0시 뮤직페스티벌’7~10일 열려 폐광지역 4개 시군 잇는 '운탄고도1330 걷는 길' 개통! 포토뉴스 정조의 효심과 부국강병 꿈 227년 부활...수원화성문화제 7일 개막 거대 수호신 '진묘수', 공주시 금강에 떴다...인기 만발 고양시, 제20회 대한민국막걸리 축제’ 8~11일개최 대전시, ‘대전 0시 뮤직페스티벌’7~10일 열려 인기뉴스 1 "거 참 재밌네!"...오감이 흥겨운 안동국제탈춤페스티벌 2 10월엔 경남 축제·문화 따라 가을여행! 3 올 가을, 우리는 ‘백제문화제 판타지아’에 빠진다 4 부여의 맛·멋·흥 100% 즐기는 법 5 11~12월엔 초특가 항공권으로 일본·베트남·필리핀 알뜰여행을! 6 풍자와 해학 '음성품바축제' 관람객 북적 7 서울여행 인기...일본 최대 관광박람회서 서울홍보관 북적북적 8 풍성한 가을축제로 부산 매력에 빠져봐요! 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 법인명 : (주)태건미디어 사업자 등록번호 : 105-87-36240 서울특별시 종로구 송월길 136 301호 발행·편집인 : 유경훈 청소년보호책임자 : 조성란 대표전화 : 02-326-0002 이메일 : webmaster@tournews21.com 투어코리아 정기간행물 등록번호 : 종로 라 00420 등록일 : 2009-12-14 투어코리아뉴스 인터넷신문 등록번호 : 서울 아 03491 등록일 : 2014-12-18 발행일 : 2014-12-18 투어코리아 - No.1 여행·축제 뉴스 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 투어코리아 - No.1 여행·축제 뉴스. All rights reserved. mail to webmaster@tournews21.com 위로</t>
-  </si>
-  <si>
-    <t>제주도, 2021 하반기 우수관광사업체 공모 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 11:19 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 2021 하반기 우수관광사업체 공모 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, 2021 하반기 우수관광사업체 공모 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2021.10.05 14:36 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 오는 8일부터 27일까지 ‘2021년 하반기 우수관광사업체’를 공모한다고 밝혔다. 이번 공모는 도내 우수 관광상품과 고품격 서비스를 두루 갖춘 관광사업체를 선발하기 위해 마련됐다. 신청 대상은 도내에 사업장(주소)를 둔 업체 중 영업신고(리모델링) 후 1년 이상 경과한 업체다. 신청 분야는 관광지·교통·숙박업·여행업·음식업 등 5개이며, 우수관광사업체로 지정돼 2년이 도래한 사업체는 신청을 통해 심사 후 재지정 받을 수 있다. 제주도는 관광사업체 신청 서류 등 자격요건 심사 후 전문가들로 구성된 평가위원들의 현장평가와 우수관광사업체 평정위원회  심의를 거쳐 대상업체를 선정할 방침이다. 평가는 △사업체 시설 및 환경 △서비스 △요금 △안전·위생관리 △지역 사회 공헌도 등이며, 분야별 평가표에 따라 이뤄진다. 종합점수가 기준 점수(90점)에 충족된 경우 평정위원회 심의를 거쳐 최종 선정된다. 우수관광사업체 지정 기간은 2년(2022년 1월 1~2023년 12월 31일)이며, 우수관광사업체 지정서 및 인증패가 주어진다. 이와 함께 제주도 및 유관기관 홈페이지 게재, 사회 관계망 서비스(SNS) 홍보(블로그, 인스타그램, 유튜브 등), 리플릿, 지도 제작 및 배포를 통한 홍보 인센티브 혜택과 함께 홍보 지원금 80만 원이 지급된다. 또한, 지정 우수관광사업체 고객만족도 조사 등 중간점검을 통해 컨설팅 및 종사자 대상 서비스 교육도 지원된다. 희망 사업체는 도청 홈페이지(www.jeju.go.kr) ‘입법·공고·고시’ 게시판에서 우수관광사업체 지정 신청서 등을 내려 받아 서류 작성 후 제주도관광협회(064-741-8752)에 신청하면 된다. 자세한 공모 내용은 도청 홈페이지에서 확인할 수 있다. 김승배 제주도 관광국장은 “우수관광사업체 선정을 통해 제주관광이 질적으로 성장할 수 있는 기반을 마련할 것”이라며 “도내 관광사업체의 많은 참여와 관심을 기대한다”고 말했다. 한편, 10월 현재 우수관광사업체는 68곳이다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 "제주 보전지역 정기조사 부실투성이...도의회, 재조사 요구하라" 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 7 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 참으로 무식한 시민단체라고 할 수 밖에... 공장도 없애야 하고 자동차도 다 없애자고 주장하고. 제주도행 비행기도 운항 중단해야 한다고 주장하는 거랑 뭐가 다른지... 누가 저렇게 하라고 시민단체에게 지시하는 사람이 있나요. 2 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 3 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 4 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 5 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 6 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 7 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 8 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 9 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 10 축하합니다. 대단하십니다. 부럽습니다~~~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도-제주관광공사, 친환경 제로웨이스트 캠페인 진행 - 뉴스제주 × 전체기사 사회 전체 사건사고 일반 포토 날씨 뉴스제주초점 기업·인물탐방 행정 전체 제주도청 제주도의회 제주시청 서귀포시청 유관기관 읍면동 정치 전체 선거 정당 국회 의정활동 시민단체 교육 전체 교육청 교육행정 학교소식 경제 전체 제주도 제주시 서귀포시 도외 일반 문화 전체 제주도 제주시 서귀포시 도외 일반 관광 전체 제주도 제주시 서귀포시 도외 일반 동정 전체 도청 도의회 제주시 서귀포시 기타 연예 스포츠 동영상 오피니언 전체 기자수첩 칼럼 기고 시민기자 미디어부 뉴스제주TV 뉴스제주 시작페이지로 즐겨찾기 추가 한국어 영어 일본어 중국어 처음으로 로그인 회원가입 모바일웹 전체 사회 사건사고 포토 날씨 뉴스제주초점 기업·인물탐방 행정 제주도청 제주도의회 제주시청 서귀포시청 유관기관 사업소 읍면동 정치 선거 정당 국회 교육 교육청 교육행정 학교소식 경제 제주도 제주시 서귀포시 도외 문화 제주도 제주시 서귀포시 도외 스포츠 오피니언 기자수첩 칼럼 기고 시민기자 관광 제주도 제주시 서귀포시 도외 일반 동정 도청 도의회 제주시 서귀포시 기타 후원안내 날씨 기사검색 검색 최종편집 : 2022-10-04 11:05 (화) 이전 다음 제주도-제주관광공사, 친환경 제로웨이스트 캠페인 진행 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사회 제주도-제주관광공사, 친환경 제로웨이스트 캠페인 진행 박가영 기자 승인 2021.10.05 11:29 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 텔레그램 URL복사 × 캠페인 참여할 20여 개 숙박업소 오는 15일까지 모집 제주특별자치도와 제주관광공사(사장 고은숙)는 친환경 여행문화 확산을 위해 도민, 관광객 참여형 ‘친환경 제로웨이스트 캠페인’을 진행한다고 5일 밝혔다. 친환경 제로웨이스트 캠페인은 제주대학교 학생들이 참여한 캡스톤 디자인(Capstone design :  산업현장에서 부딪칠수 있는 문제들을 해결하는 능력을 길러주는 기획, 설계 제작 전 과정을 경험하는 교육과정) 프로젝트에서 대상을 수상한 제로웨이스트 키트 프로젝트 아이디어에 착안했다. 공사에서 집중 육성하고 있는 마을 웰니스 클러스터(Cluster : 비슷한 업종 기업·기관들이 모여있는 특정 지역) 내 숙소를 대상으로 연말까지 관광객들이 친환경 제로웨이스트 웰컴키트를 무료로 체험하고 친환경 제로웨이스트 운동 참여 할 수 있도록 독려하는 캠페인이다. 이를 통해 도와 공사는 관광객들이 도내 숙박업소에서 숙박을 하며 친환경, 재사용 가능한 욕실용품을 체험하고 환경에 대한 관심을 높여, 제주관광을 즐길 때 일회용 쓰레기 문제에 대한 관심과 플라스틱 쓰레기 문제에 대한 심각성을 알릴 예정이다. 이를 위해 도내 마을기업인 지구별가게와 함께 마을·웰니스 클러스터 지역인 한림, 안덕, 한경, 하효, 남원에 위치한 숙소들을 대상으로 친환경 제로웨이스트 캠페인에 참여할 20여 개 참여 숙박업소를 오는 15일까지 모집한다. 또한 숙박업소가 모집이 완료가 되면 숙박업소를 이용하는 관광객들에게 친환경 제로웨이스트 키트를 무료로 체험할 수 있도록 제공하고, 숙박업소와 연계한 친환경 제로웨이스트 마을 투어 콘텐츠도 만들어 홍보할 계획이다. 이와 함께 관광객 뿐만 아니라 제주도민이 함께 일회용품과 플라스틱 쓰레기를 줄이고 깨끗한 청정 제주를 만드는데 힘을 보탤 수 있도록 캠페인을 추진해 나갈 방침이다. Tag #제주관광공사 #친환경 제로웨이스트 캠페인 #숙박업소 저작권자 © 뉴스제주 무단전재 및 재배포 금지 박가영 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 자동등록방지 내용 0 / 400 등록 댓글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 많이 본 뉴스 뉴스 댓글 1제주관광, 코로나19 이전 수준으로 회복 2제주 구직청년 8365명에 재난지원금 42억 지원 3제주 국악인 차영수, 세종 전통예술경연대회 대상 4제주시, 맞춤형급여 탈락 가구에 공적지원제도 연계 5제주시, 여성장애인 출산 비용 지원 1ㅎ ㅎ ㅎ 2비슷비슷헌 사름덜 보염싱게~ 자기들부터 깨끗허게 살주게 3원희룡... 4문화관광체육위원회 소속 더불어민주당 이승아위원장을 비롯한 소속위원들은 쇼하지 마세요.청문회 하는거 보고 좀 달라졌나했더니 말은 그렇게 해놓고 행동은 이선화 찬성??ㅡ이제 당신들의 청치인생은 끝이가보네요.겉과 속이 다르니... 5뭐야? 이건! 최신기사 지역축제 안전관리 지역축제 안전관리 소소한 친절이 주는 감동 소소한 친절이 주는 감동 공감을 담은 친절함으로 공감을 담은 친절함으로 청소년 코로나우울·스마트폰 중독 예방 홍보관 운영 청소년 코로나우울·스마트폰 중독 예방 홍보관 운영 제주시 서부보건소, 오는 8일 한담산책로 걷기행사 개최 제주시 가족센터, 맞춤형 가족 프로그램 추진 제주시, 맞춤형급여 탈락 가구에 공적지원제도 연계 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 첨단로8길 34, 1층 대표전화 : 064-747-1188 팩스 : 064-745-4569 청소년보호책임자 : 남우엽 제호 : 뉴스제주 등록번호 : 제주 아 01007 등록일 : 2006-10-09 발행인 : 남우엽 편집인 : 남우엽 뉴스제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 뉴스제주. All rights reserved. mail to newsjeju@hanmail.net 위로</t>
-  </si>
-  <si>
-    <t>제주도-제주관광공사, 해양쓰레기 팝업 전시 '필터' 10일 개막 - 전국매일신문 - 전국의 생생한 뉴스를 ‘한눈에’ × 전체기사 전국은지금 전체 인물열전 핫플레이스 페스티벌 파워인터뷰 전국 전체 서울 경기 인천 대전충청 세종 부산경남 대구경북 호남 강원 제주 정치 전체 정치일반 지방정치 국민의선택 경제 전체 경제일반 산업·기업 건설·부동산 금융·유통 농림·수산 사회 전체 사회일반 사건·사고 현장포커스 꿀팁모음ZIP 교육 전체 교육일반 교육행정 문화 전체 생활·문화 스포츠 방송·연예 독자와 함께 詩(시) 읽기 나랏말싸미 사투리뉴스 수어, 함께 배워요 점자, 손끝으로 읽는 세상 국제 ESG・CSR 연구소 전체 ESG경영 CSR가치실천 ESG・CSR 칼럼 오피니언 전체 서길원 대기자 세상읽기 김연식의 생각이 있는 아침 한상규의 알기쉬운 회의진행 방법 칼럼 전문가 칼럼 전매만평 사설 기고 독자투고 피플 전체 人사이드 새인물 인사 부음 동정 전국매일신문배 코리아오픈 하프파이프대회 기획특집 전체 기획특집 기획보도 포토·영상 전체 전매VIEW 전매TV 그래픽뉴스 종합 전체 종합 2020 신년사 로그인 회원가입 모바일웹 지면보기 2022-10-04 11:20 (화) NOW 인천 실종 치매 노인, 13일 만에 수원 길거리서 찾아 "北 탄도미사일 4천500㎞ 비행"…합참, 추가도발 대비 추적·감시 "북 미사일 4천500㎞ 비행, 고도 970㎞, 속도 마하17" 4~7일 오전 8시 4호선 전장연 시위…열차운행 지연 예정 전국 흐리고 비…중부지방 최고 80㎜ 정치 정치일반 지방정치 국민의선택 경제 경제일반 산업·기업 건설·부동산 금융·유통 농림·수산 사회 사회일반 사건·사고 현장포커스 꿀팁모음ZIP 전국 서울 경기 인천 대전충청 세종 부산경남 대구경북 호남 강원 제주 교육 교육일반 교육행정 문화 생활·문화 스포츠 방송·연예 독자와 함께 詩(시) 읽기 나랏말싸미 사투리뉴스 수어, 함께 배워요 점자, 손끝으로 읽는 세상 오피니언 서길원 대기자세상읽기 김연식의생각이 있는 아침 한상규의 알기쉬운회의진행 방법 칼럼 전문가 칼럼 전매만평 사설 기고 독자투고 피플 人사이드 새인물 인사 부음 동정 기획특집 기획특집 기획보도 전국은지금 인물열전 핫플레이스 페스티벌 파워인터뷰 전매TV 기사검색 전국은지금 인물열전 핫플레이스 페스티벌 파워인터뷰 전국 서울 경기 인천 대전충청 세종 부산경남 대구경북 호남 강원 제주 정치 정치일반 지방정치 국민의선택 경제 경제일반 산업·기업 건설·부동산 금융·유통 농림·수산 사회 사회일반 사건·사고 현장포커스 꿀팁모음ZIP 교육 교육일반 교육행정 문화 생활·문화 스포츠 방송·연예 독자와 함께 詩(시) 읽기 나랏말싸미 사투리뉴스 수어, 함께 배워요 점자, 손끝으로 읽는 세상 국제 ESG・CSR 연구소 ESG경영 CSR가치실천 ESG・CSR 칼럼 오피니언 서길원 대기자 세상읽기 김연식의 생각이 있는 아침 한상규의 알기쉬운 회의진행 방법 칼럼 전문가 칼럼 전매만평 사설 기고 독자투고 피플 人사이드 새인물 인사 부음 동정 전국매일신문배 코리아오픈 하프파이프대회 기획특집 기획특집 기획보도 포토·영상 전매VIEW 전매TV 그래픽뉴스 종합 종합 2020 신년사 전국매일신문지면보기 지방시대지면보기 전체기사 서울 경기 인천 대전충청 세종 부산경남 대구경북 호남 강원 제주 이전 다음 제주도-제주관광공사, 해양쓰레기 팝업 전시 '필터' 10일 개막 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 상태바 HOME 전국 제주 제주도-제주관광공사, 해양쓰레기 팝업 전시 '필터' 10일 개막 제주취재본부/ 양동익기자 승인 2021.10.10 10:00 댓글 0 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 URL복사 × 23일까지 이호테우해수욕장서 진행 해양쓰레기 팝업전시 '필터'. [제주관광공사 제공] 해양쓰레기 팝업 전시 '필터(filter-必터)'가 10일부터 제주에서 열린다. 제주도와 제주관광공사는 이호테우해수욕장 종합상황실에서 10일부터 23일까지 2주간 진행한다고 밝혔다. 이번 전시는 제주 바다는 우리의 놀이'터'이자 반드시 지켜야 할 '터'이다. 물을 정수(정화)하는 필터처럼, 사진 찍을 때 예쁘게 보정해주는 필터처럼, '必터'를 통해 오염된 바다를 다시 아름답게 만들자라는 취지로 시작됐다. '필터'(filter-必터)는 이호동주민센터와 이호동주민자치위원회와의 협업을 통해 해양쓰레기를 활용해 이호테우해수욕장의 문화콘텐츠로 개발하고 코로나19로 침체한 이호동 지역을 활성화하는 프로젝트이자 제주 바다 보호를 위해 진행되는 캠페인성 전시행사다. 실제 바다에서 수거한 해양쓰레기를 활용해 오염된 바다부터 점점 정화되는 모습의 바다를 연출한 스토리텔링 전시를 선보인다. 이외에도 건물 복도와 테라스, 발코니에는 제주 바다에서 수거한 폐어망, 폐그물, 폐플라스틱, 폐비닐을 활용해 제작된 포토존이 준비돼 있다. 방문객들을 위한 업사이클링(Up-cycling·재활용) 체험공간도 마련돼 있다. 전시 공간 내에 이뤄지는 팝업스토어에서는 나이키의 재고 의류를 업사이클링한 전시와 굿즈를 선보인다. 굿즈는 해양 정화 및 지역 상권 활성화 취지에 맞춰 이호테우해수욕장 쓰레기를 수거하거나 이호동 상권을 이용한 자에 한해 무료 제공된다. 한편 이번 전시는 2주간 오전 11시부터 오후 7시까지 운영될 예정이며, 코로나19 방역지침에 따라 예약제로 운영된다. [전국매일신문] 제주취재본부/ 양동익기자 waterwrap@jeonmae.co.kr 저작권자 © 전국매일신문 - 전국의 생생한 뉴스를 ‘한눈에’ 무단전재 및 재배포 금지 제주취재본부/ 양동익기자 다른기사 보기 당신만 안 본 뉴스 '尹 비속어 논란'에 침묵지키던 이준석 "나라 걱정되신다면" 정찬민 국회의원 징역 7년 선고···법정 구속 은평전통시장 페스타 ‘불광천 시장산책’ 24일 개최 박민영 측 "강종현과 결별..금전지원 없었다" 尹 대통령, "국회서 이 XX들이···바이든 쪽팔려서 어떡하나" 비속어 논란 대구 달서구 정신병원서 여성 환자 흉기에 찔려 원주 문막읍 공장서 전기작업하던 40대 근로자 사망 '尹 비속어 논란'에 침묵지키던 이준석 "나라 걱정되신다면" 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 주요기사 환절기 잦은 피로 느끼는 여성... 원인은 자궁근종? "물가안정 동참" LH, 건설·매입 임대주택 임대료 1년간 추가 동결 '송가인 전국투어 콘서트' 8일 목포 공연 개최 통일부 "北, 제재로 압박해 스스로 비핵화 시킬 것" 성북구의회 보건복지위, 현장 방문 러 핵 무력사용 임박 소식에 '대정화금' 상승세 최신뉴스 환절기 잦은 피로 느끼는 여성... 원인은 자궁근종? "물가안정 동참" LH, 건설·매입 임대주택 임대료 1년간 추가 동결 '송가인 전국투어 콘서트' 8일 목포 공연 개최 통일부 "北, 제재로 압박해 스스로 비핵화 시킬 것" 성북구의회 보건복지위, 현장 방문 전국은지금 인물열전 핫플레이스 페스티벌 파워인터뷰 전국 서울 경기 인천 대전충청 세종 부산경남 대구경북 호남 강원 제주 정치 정치일반 지방정치 국민의선택 경제 경제일반 산업·기업 건설·부동산 금융·유통 농림·수산 사회 사회일반 사건·사고 현장포커스 꿀팁모음ZIP 교육 교육일반 교육행정 문화 생활·문화 스포츠 방송·연예 독자와 함께 詩(시) 읽기 나랏말싸미 사투리뉴스 수어, 함께 배워요 점자, 손끝으로 읽는 세상 국제 ESG・CSR 연구소 ESG경영 CSR가치실천 ESG・CSR 칼럼 오피니언 서길원 대기자 세상읽기 김연식의 생각이 있는 아침 한상규의 알기쉬운 회의진행 방법 칼럼 전문가 칼럼 전매만평 사설 기고 독자투고 피플 人사이드 새인물 인사 부음 동정 전국매일신문배 코리아오픈 하프파이프대회 기획특집 기획특집 기획보도 포토·영상 전매VIEW 전매TV 그래픽뉴스 종합 종합 2020 신년사 회사소개 윤리강령 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 서비스 전체보기 경기도 성남시 수정구 성남대로 1222 (수진동, 예농빌딩) 법인명 : (주)전국매일신문 제호 : 전국매일신문 등록번호 : 경기, 가00043 발행일 : 1997-06-24 등록일 : 2010-03-23 부가통신사업신고번호 : 제 2-01-22-0081 호 대표전화 : 1588-5762 팩스 : 031-758-4360 발행·편집인 : 박종문 청소년보호책임자 : 총괄이사 전석하 전국매일신문 - 전국의 생생한 뉴스를 ‘한눈에’ 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 전국매일신문 - 전국의 생생한 뉴스를 ‘한눈에’. All rights reserved. mail to jm5600@nate.com 위로</t>
-  </si>
-  <si>
-    <t>제주도의회 문화관광체육위원회, 행정사무감사에 앞서 문화현장 점검 주메뉴 바로가기 본문 바로가기 2022.10.04 (화) 카카오채널 RSS 모바일보기 흐림서울 17.1℃ 구름많음제주 23.9℃ 구름많음고산 22.4℃ 구름많음성산 23.1℃ 흐림서귀포 24.9℃ 기상청 제공 기사제보 기사문의 회원가입 로그인 Korean English 中文 日本語 tiếng Việt Idioma español ру́сский язы́к 메뉴 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 기사검색 검색어를 입력해주세요 검색하기 검색창 열기 닫기 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 정치 홈 정치 제주도의회 문화관광체육위원회, 행정사무감사에 앞서 문화현장 점검 서유주 기자 news@jejutwn.com 등록 2021.10.08 13:08:55 URL복사 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 설문대할망 전시관 및 제주성읍마을 현장방문 [제주교통복지신문 서유주 기자] 제주도의회 문화관광체육위원회는 행정사무감사에 앞서 8일 돌문화공원 설문대할망 전시관과 제주성읍마을을 방문하여 현장을 둘러보고, 추진되고 있는 사업에 대해 의견청취 등 의정활동을 펼친다. 돌문화공원 설문대할망 전시관은 2012년부터 2020년까지 9년간, 821억원 투자에도 불구하고 전시콘텐츠 빈약, 시공의 문제점, 학예인력 부족으로 인한 운영의 문제점 등이 제기됨에 따라 현장을 직접 둘러보고 개선대책을 논의 할 예정이다. 한편, 국가민속문화재 제188호로 지정된 제주 성읍마을이 지난 8월 호우로 성곽 3개소가 붕괴됨에 따라 이에 따른 조치사항과 향후계획에 대해 현장브리핑을 받는다. 또한 성읍1리 마을회 지역주민의 애로사항도 청취할 계획이다. 안창남 위원장은 2021년 행정사무감사에 앞서 문화현장 점검에 나서면서 “설문대할망전시관은 제주의 생성과 문화의 뿌리가 되어 온 돌문화, 설문대할망신화, 민속문화가 집대성 되어 있는 공간인 만큼 세계적인 명품 공원으로 조성되도록 심혈을 기울여야 할 것이며, 제주성읍마을은 국가민속문화재로 지정 관리되고 있는 만큼 성곽 붕괴 부분은 긴급히 보수 시행하여 문화재 보호에 만전을 기해야 할 것”이라고 말했다. 또한, “제주 곳곳에 분포되어 있는 유·무형의 문화자원들을 행정과 민간이 협업하여 문화가치를 극대화 해 나갈수 있는 방법을 모색해 나감으로써 제주 고유의 전통문화와 민속예술을 지속적으로 계승 발전시켜 나가야 할 것이다” 라고 거듭 강조했다. 서유주 기자 의 전체기사 보기 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 네이버카페 밴드 Copyright @2015 제주교통복지신문 Corp. All rights reserved. 랭킹뉴스 1 제주 서귀포 친환경 주거타운 ‘제주 레브카운티’, 대자연 풍경과 개발 수혜로 관심 2 [TW포토] 제3회 서귀포은갈치축제 현장 3 [TW포토] 제주관광대 탐모라볼빛축제…장덕철 열창 4 3년 만에 개최되는 제3회 서귀포 은갈치 축제 9월 30일 개최 5 제주시, 10월 시정시책공유 간부회의 개최 6 2022 청춘마이크 제주 뮤직 페스티발 9월 30일 개최 7 [TW포토] 제주관광대 탐모라볼빛축제 성황리에 열려 8 서귀포시 서부보건소, 제주도 최초 선정 '생애 초기 건강관리사업' 운영 9 서귀포시, 민원업무 담당자 직무교육 실시 10 서귀포시, 美 풀러턴(Fullerton)市와 함께한‘창업 및 수출지원 세미나’성료 실시간 뉴스 2022-10-04_TUE [TW포토] 제주 한라산 일출 풍경, '핑크빛 하늘' 06:40 제주 오션갤러리, 시행사 보유분 특별분양 03:58 2022-10-03_MON 제주도, 김희현 정무부지사, 국학기공대회 참석 격려 16:39 제주도, 무오법정사 항일항쟁 104주년…“숭고한 정신 이어 새로운 미래 준비” 16:38 제주도의회 김황국 의원, 스포츠관광 정책 발전 기여 공로상 수상 16:31 신문사소개 윤리강령 찾아오시는 길 개인정보처리방침 청소년보호정책 (책임자 : 이청) 이메일 무단수집거부 기사제보 문의하기 제주특별자치도 제주시 신대로7길 20, 301호 (연동, 새롬빌라) | 대표전화 : 010-8675-4517 발행인 : 이문호 | 편집인 : 이청 | 등록번호 : 제주, 아01068 | 등록일 : 2016.10.11 | 이메일 : news@jejutwn.com 제주교통복지신문의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2021 제주교통복지신문. All rights reserved. 최종편집일: 2022년 10월 04일 11시 19분 최상단으로</t>
-  </si>
-  <si>
-    <t>[전문] 안창남 제주도의회 문화관광체육위원장, 행정사무감사 임하는 각오 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 11:19 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 [전문] 안창남 제주도의회 문화관광체육위원장, 행정사무감사 임하는 각오 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 도의회 [전문] 안창남 제주도의회 문화관광체육위원장, 행정사무감사 임하는 각오 편집팀 iheadline@hanmail.net 승인 2021.10.11 11:11 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 안창남 문화관광체육위원장. ⓒ헤드라인제주 “문화·관광·체육정책의 코로나 19 대응노력 점검할 터...” 장기화되는 코로나 팬데믹 상황에서 지난 1년간 코로나로 지친 도민들을 위로하고 지역경제 활성화에 근간이 되어야 할 문화예술, 체육, 관광정책은 제대로 작동하지 못했습니다. 문화예술과 체육행사는 취소와 연기를 반복하면서 도민들의 코로나 블루 극복 노력은 물론 도내 문화예술인들의 창작활동과 생계지원에 소극적이었으며, 해외여행 대신 제주에 관광객이 집중되었지만 도민들의 코로나 확산 우려만 커졌을 뿐 코로나로 달라진 여행패턴 변화에 대한 대응은 물론 도내 관광산업의 양극화를 면치 못하면서 지역경제의 선순환 구조를 만들지 못했습니다. 이번 행정사무감사가 도지사 사퇴에 따른 권한대행 체제 속 제11대 도의회 마지막 행감인 만큼 더욱 면밀히 살펴보겠다. 연초 도의회 업무보고의 이행사항 점검과 예산집행의 효율성과 적법성 등을 꼼꼼히 따져 코로나 극복을 위해 문화·관광·체육분야의 정책추진사항과 대응노력을 심층적으로 검토하겠습니다. 앞으로 다가올 위드 코로나 시대를 준비해 철저한 방역 속에서도 문화, 예술, 체육활동이 문화예술 진흥은 물론 도민의 마음을 치유하고 건강을 활력화시키는 구심점 역할을 할 수 있도록 정책적 방안을 모색함과 동시에 제주관광 또한 질적관광으로 전환시켜 문화관광을 통해 도민일상을 회복하고 지역경제도 선순환이 될 수 있도록 행정 개선을 요구하는 정책 행감이 되도록 노력하겠습니다. 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 제주도의회 임시회 12일 개회...마지막 행정사무감사 실시 [전문] 부공남 제주도의회 교육위원장, 행정사무감사 임하는 각오 [전문] 현길호 제주도의회 농수축경제위원장, 행정사무감사 임하는 각오 [전문] 강성의 제주도의회 환경도시위원장, 행정사무감사 임하는 각오 [전문] 양영식 제주도의회 보건복지안전위원장, 행정사무감사 임하는 각오 [전문] 이상봉 제주도의회 행정자치위원장, 행정사무감사 임하는 각오 [전문] 강연호 제주도의회 부의장, 행정사무감사 임하는 각오 [전문] 정민구 제주도의회 부의장, 행정사무감사 임하는 각오 [전문] 좌남수 제주도의회 의장, 행정사무감사 임하는 각오 좌남수 의장 "행정사무감사, 잘못된 관행 과감히 털어내겠다" 제주도의회 행정사무감사 13일 시작...임기말 '고강도 감사' 예고 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 "제주 보전지역 정기조사 부실투성이...도의회, 재조사 요구하라" 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 7 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 참으로 무식한 시민단체라고 할 수 밖에... 공장도 없애야 하고 자동차도 다 없애자고 주장하고. 제주도행 비행기도 운항 중단해야 한다고 주장하는 거랑 뭐가 다른지... 누가 저렇게 하라고 시민단체에게 지시하는 사람이 있나요. 2 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 3 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 4 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 5 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 6 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 7 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 8 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 9 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 10 축하합니다. 대단하십니다. 부럽습니다~~~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도, 하반기 우수관광사업체 공모 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 11:20 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도, 하반기 우수관광사업체 공모 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 제주도, 하반기 우수관광사업체 공모 김지우 기자 승인 2021.10.05 14:58 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도는 8일부터 27일까지 ‘2021년 하반기 우수관광사업체’를 공모한다고 5일 밝혔다. 이번 공모는 도내 우수 관광상품과 고품격 서비스를 두루 갖춘 관광사업체를 선발하기 위해 마련됐다. 신청 대상은 도내 사업장(주소)을 둔 업체 중 영업신고(리모델링) 후 1년 이상 경과한 업체다. 신청 분야는 관광지·교통·숙박업·여행업·음식업 등 5개이며, 우수관광사업체로 지정돼 2년이 도래한 사업체는 신청을 통해 심사 후 재지정 받을 수 있다. 제주도는 관광사업체 신청 서류 등 자격요건 심사 후 전문가들로 구성된 평가위원들의 현장평가와 우수관광사업체 평정위원회 심의를 거쳐 대상업체를 선정한다. 우수관광사업체 지정 기간은 2년이며 지정서와 인증패가 주어진다. 이와 함께 제주도와 유관기관 홈페이지 게재, 사회 관계망 서비스(SNS) 홍보(블로그, 인스타그램, 유튜브 등), 리플릿, 지도 제작 및 배포를 통한 홍보 인센티브 혜택과 함께 홍보 지원금 80만원이 지급된다. 또 지정 우수관광사업체 고객만족도 조사 등 중간점검을 통해 컨설팅 및 종사자 대상 서비스 교육도 지원된다. 한편 10월 현재 도내 우수관광사업체는 68곳이다. 김지우 기자  jibregas@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 김지우 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 64일부터 요양시설 접촉면회 재허용 7제주고·제주여상, 전도사격대회 고등부 단체전 정상 8깊어가는 가을, 코스모스 활짝 9기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 10김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+    <t>홍현희♥제이쓴, 제주도 여행 중 커플 화보 찍었네 "관광지가면 이런 거 하나씩 찍자나?" 홍현희♥제이쓴, 제주도 여행 중 커플 화보 찍었네 "관광지가면 이런 거 하나씩 찍자나?" : 스포츠조선 뉴스 최신뉴스 카드뉴스 PDF 보기 포토 펀펌 스포츠 야구 축구 농구 배구 골프 학교체육 연예 SC초점 SC이슈 SC현장 라이프 여행레저 헬스케어 Family Site 청룡영화상 청룡시리즈어워즈 조선일보 와이즈토토 야구 축구 종합 연예 라이프 포토 만화 운세 Diva 운세의신 달리고 펀펌 연예 홍현희♥제이쓴, 제주도 여행 중 커플 화보 찍었네 "관광지가면 이런 거 하나씩 찍자나?" 기사입력 2021-10-25 15:53:07 [스포츠조선닷컴 정안지 기자] 개그우먼 홍현희와 남편이자 인테리어 디자이너 제이쓴이 제주도에서 행복한 시간을 보냈다.제이쓴은 25일 자신의 인스타그램 스토리를 통해 "관광지가면 이런 거 하나씩 찍자나"라면서 사진을 게재했다. 사진 속에는 제주도 여행 중인 홍현희 제이쓴 부부의 모습이 담겨있다. 관광지를 찾아 힐링을 하며 둘 만의 시간을 보내고 있는 부부. 이어 양 손을 꼭 잡은 채 팔을 벌리고 사진을 찍고 있는 부부의 모습은 아름다운 배경과 어우러져 한 폭의 화보를 연상케 했다. 사진을 통해 행복이 고스란히 전해지는 부부의 모습이었다.한편 제이쓴은 방송인 홍현희와 2018년 결혼했으며 TV조선 '와카남'에 출연 중이다.anjee85@sportschosun.com 톱배우 충격 근황..파킨슨병으로 불편한 모습 “온몸 두들겨 맞는듯한 한해 보내” 김지민 “쌍둥이 임신해서 ♥김준호와 결혼한다고”→박미선 “떠밀려 결혼하지 마” '부모 빚투' 마이크로닷, '닭발집' 앞에서 근황을? 코 수술·뮤비 촬영 위해 귀국 '뺑소니' 조형기, 방송가 사라진 후 “美 필라델피아서 자주 목격” 박미선·김용만 불화로 갈등..“좋은 사람 아닌 것 같아” 연예 많이본뉴스 1.신화 신혜성, 도난차량서 음주측정 거부하다가 체포 2.마돈나, 41세 연하남과 열애 부담됐나? 급기야 성형의혹까지 3.'결혼지옥' 73세 아내 "79세 남편 세 번의 외도"..오은영 "배우자 외도 치명상" [SC리뷰] 4.김태희, '♥비 골프선수 불륜설' 극복..'하이바이, 마마' 향한 끈끈한 우정 5."최초공개" 오상진♥김소영, 이름도 비밀이었던 딸+집안 내부 [종합] ('동상이몽2') 스포츠 많이본뉴스 1.트레이드 실패? 이대호의 '아픈 손가락'…천재 유격수 향한 '의미심장' 마지막 당부 [SC포커스] 2."나는 게이다" 후폭풍…카시야스, 팔로워 300만 빠졌다 3.'괴물' 데려온 伊 에이전트 "나폴리에 1년 전부터 김민재 제안" 4.'55세 225일' 日축구영웅의 노욕, 팬들도 질렸다 "미우라를 월드컵으로!" 5.'너무 망가져 보인다' 눈물 참는 명장, 고통 받는 충격 근황 스포츠조선 회사소개 광고/제휴문의 사진대여 신문구독신청 개인정보처리방침 청소년보호정책 조선일보 와이즈토토 청룡영화상 등록번호 : 서울 아01720 등록일자 : 2011년 7월 29일 발행일자 : 2000년 11월 1일 주소 : 서울 양천구 목동동로 233-1 전화번호 :02-3219-8114 발행인 : 이성관 편집인 : 신보순 청소년보호책임자 : 이재훈 RSS PDF Copyright (c) SPORTSCHOSUN.COM All rights reserved.</t>
+  </si>
+  <si>
+    <t>롯데관광개발, 제주도 우수제품 판매… "6차산업 진흥에 앞장설 것" - 머니S 본문영역 바로가기 2022.10.11 | 14:57:45 '인간 샤넬' 제니, 이번엔 무슨 패션?… 이걸 소화하네 더보기 '인간 샤넬' 제니, 이번엔 무슨 패션?… 이걸 소화하네1분전 "데일리 좋아해"… 김고은 애착템 '반지'에 담긴 의미는?2분전 '미향광주 푸드마켓' 광주식품대전 DJ센터서 13일 개막3분전 안동시, 2023년 '안동관광 할인쿠폰북' 참여업체 모집3분전 수업 도중 성희롱 발언한 중학교 교사, 해임불복소송서 패소4분전 김태형 감독, 8년 만에 두산 지휘봉 내려놓는다7분전 온라인서 가장 관심 많은 항공사는 대한항공… 아시아나·제주항공 순8분전 DS 나서는 저지 "올해는 다르다"… 팬들에겐 "소리 질러"13분전 남양주시, 불법 주정차 단속 'CCTV 통합운영 시스템' 구축14분전 [머니S포토] 질의 답변하는 이종국 SR대표이사19분전 2022.10.11 기사표출기준 광고안내 독자의견 정기구독 MNB 머니바이크 하이하이 검색오픈 검색 검색 금융 은행 보험 증권섹션 재테크 정책일반 생활금융 증권 마켓 비즈니스 글로벌 재테크 가상화폐 산업 기업일반 IT 블록체인 자동차 항공물류 유통생활 정책일반 게임 의약/바이오 에너지/중공업 건설/부동산 업계일반 부동산시장동향 정책일반 재테크 생활문화 여행 맛집 출판 공연문화 교육,육아 건강 패션뷰티 이슈&amp; 창업현미경 브랜드소식 정책일반 핫이슈/트렌드 인물탐방 쇼핑몰뉴스 창업칼럼 연예 스타 드라마 예능 영화 뮤직 해외 일반 포토 스포츠 야구 해외야구 축구 해외축구 농구 배구 골프 일반 e스포츠&amp;게임 연재 정치/사회 정치 사회 지역 글로벌 인사 부고 전체 롯데관광개발, 제주도 우수제품 판매… "6차산업 진흥에 앞장설 것" 머니S 노유선 기자|조회수 : 1,904|입력 : 2021.10.22 16:54 기사공유 댓글남기기 폰트크게 폰트작게 프린트 롯데관광개발이 제주도 6차 산업 발전을 위해 지역 우수 상품을 판매하는 '드림 기프트숍'을 오픈했다고 22일 밝혔다. 사진은 제주 드림타워 복합리조트 전경. /사진=롯데관광개발롯데관광개발이 제주도 6차 산업 발전을 위해 지역 우수 상품을 판매하는 '드림 기프트숍'을 오픈했다고 22일 밝혔다. 6차 산업이란 1차 산업인 농수축산업을 기반으로 2차 산업인 제조·가공과 3차 산업인 유통·문화·체험·관광·서비스 등의 융·복합을 통해 새로운 부가가치를 창출하는 산업이다. 앞서 롯데관광개발은 2019년 10월 제주농업농촌6차산업지원센터와 상생파트너십 구축 업무협약을 체결했다.   제주도 6차산업을 지원하기 위해 기획된 드림 기프트숍은 제주 드림타워 복합리조트 내 K패션 전문 쇼핑몰인 한 컬렉션(HAN Collection)에 마련돼 있다./사진=롯데관광개발드림 기프트숍은 제주 드림타워 복합리조트 내 K패션 전문 쇼핑몰인 한 컬렉션(HAN Collection)에 마련됐다. 판매 상품은 제주 지역 6차 산업 우수제품 및 다양한 제주특산품들이다. 식품, 화장품, 생활용품 등 6차 산업 인증을 받은 18개 업체의 상품 90여종이 준비돼 있다. 제주 친환경 농산물을 이용한 수제잼과 마멀레이드, 자연주의 아동 스킨케어 제품, 제주 감귤로 만든 파이 등이 대표적이다. 롯데관광개발 관계자는 “천혜의 자연환경을 지닌 제주도는 전국을 대표하는 6차 산업의 중심지”라며 “특색 있는 제주산 제품을 발굴, 육성하는 것은 물론 한 컬렉션이 보유한 K패션 디자이너들과의 협업을 통해 패션 아이템 출시, 디자인 굿즈 제작 등 새로운 부가가치를 창출해 나갈 계획”이라고 밝혔다. 노유선 yoursun@mt.co.kr 안녕하십니까, 노유선 기자입니다. 이 기자의 다른기사 보기 &gt; 공유 : 공감 0% 비공감 0% &lt;저작권자 ⓒ ‘성공을 꿈꾸는 사람들의 경제 뉴스’ 머니S, 무단전재 및 재배포 금지&gt; &lt;보도자료 및 기사 제보 (moneys@mt.co.kr)&gt; [단독] 청바지 신화 '뱅뱅' 차남 소유 여주 땅 경매 처분… 낙찰자 봤더니?홍진영, 젖은 머리 셀카 '찰칵'… 자숙 후 달라진 모습큰 아들 횡령 대신 주장한 박수홍 아버지, 계좌 비밀번호도 몰랐다이은형♥강재준, 방송 중 이래도 돼?… '기습 키스'에 방청객 경악'뽀식이' 이용식 아내, 10년 전 고통 토로… "사는게 사는게 아니었다" 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 랭킹뉴스 최신뉴스 추천뉴스 [단독] 청바지 신화 '뱅뱅' 차남 소유 여주 땅 경매 처분… 낙찰자 봤더니?홍진영, 젖은 머리 셀카 '찰칵'… 자숙 후 달라진 모습큰 아들 횡령 대신 주장한 박수홍 아버지, 계좌 비밀번호도 몰랐다이은형♥강재준, 방송 중 이래도 돼?… '기습 키스'에 방청객 경악'뽀식이' 이용식 아내, 10년 전 고통 토로… "사는게 사는게 아니었다"'암투병' 엄앵란, 근황 공개… "관절수술 후 거동 불편해"박시연, '음주운전' 이후 첫 공식석상… 손담비가 남긴 댓글은?무주 생일 모임 일가족 참사… 원인은 일산화탄소 중독?'친중행보 논란' 헨리, 빨갛게 부어 버린 얼굴… 대체 무슨 일?흑인 팬 하이파이브 거부?… '조이♥' 크러쉬 "제스처 오해" '인간 샤넬' 제니, 이번엔 무슨 패션?… 이걸 소화하네"데일리 좋아해"… 김고은 애착템 '반지'에 담긴 의미는?'미향광주 푸드마켓' 광주식품대전 DJ센터서 13일 개막안동시, 2023년 '안동관광 할인쿠폰북' 참여업체 모집수업 도중 성희롱 발언한 중학교 교사, 해임불복소송서 패소김태형 감독, 8년 만에 두산 지휘봉 내려놓는다온라인서 가장 관심 많은 항공사는 대한항공… 아시아나·제주항공 순DS 나서는 저지 "올해는 다르다"… 팬들에겐 "소리 질러"남양주시, 불법 주정차 단속 'CCTV 통합운영 시스템' 구축[머니S포토] 질의 답변하는 이종국 SR대표이사 '12월 결혼' 티아라 지연♥황재균, 헬스장 데이트 '달달'18세 박유진, 전 재산 3만원인데… 한달 배달료만 80만원?한 살 이하 손주에게 물려준 재산 '1000억'… 1년 새 3배 '쑥'최강희 근황, 시간당 1만원 고깃집 설거지 알바?'13세 나이 차' ♥정준과 결별설… 김유지 근황 보니?박수홍 응급실 실려갈 때… "'폭행' 父는 형수와 식사""하정우 슬퍼하더라"… 차현우♥황보라, 이미 법적 부부?'돌싱글즈3' 이소라, 안면 골절→응급실행… ♥최동환 "회복하자""아이폰을 입에?"… 지드래곤, 어마어마한 플렉스 면모YG "제니 개인사진 최초 유포자 경찰수사 의뢰" 코스피 : 2185.99 46.8514:39 10/11 코스닥 : 669.40 29.0914:39 10/11 원달러 : 1435.00 22.614:39 10/11 두바이유 : 96.51 2.1514:39 10/11 금 : 1675.20 34.114:39 10/11 재테크 [법률S토리] 과세특례 활용으로 절세해 볼까 자동차 세계 수소차 시장 정체… 현대차, 시장점유율 60%로 1위 수성 CEO [CEO 포커스] 송재준 컴투스 대표, 콘텐츠 확장 박차… '서머너즈 워', 누적 매출 3조 BOOK [신간] 스타트업이 성장형 기업으로... 세계적 경영자의 동력과 신념 머니S 시리즈 기사들을 한자리에 [르포] 제약바이오 채용박람회… 인사담당자가 강조한 '이것'은? 연휴 끝난 코스피, 2200선 하회… 삼성전자는 3%대 하락 "간사 간 협의해라"… 감사원 국감, 개의 '8분'만에 파행 이전 다음 이전 다음 이전 다음 이전 다음 SLIDE[머니S포토] 코레일·SR 등 2022 국회 국토위 국감 SLIDE[머니S포토] 코레일 "감사원에 통상적 절차 답변…정보보안 철저히" SLIDE[머니S포토] 국회 국토위, 질의에 답변하는 코레일 '나희승' SLIDE[머니S포토] SR 이종국 "사전정보 보안 내부적 철저히...자료제공 면밀히" SLIDE[머니S포토] 철도공단 김한영 "철도 수송분담률 대폭 높일 것" SLIDE[머니S포토] 국회 국토위, 질의에 답변하는 나희승 사장 SLIDE[머니S포토] 질의 답변하는 이종국 SR대표이사 SLIDE[머니S포토] 감사원 국감, 질의 경청하는 최재해·유병호 SLIDE[머니S포토] 최재해 감사원장 "정치적 중립지키며 공정 감사 노력" SLIDE[머니S포토] 생각에 잠긴 최재해 감사원장 SLIDE[머니S포토] 안경 고쳐쓰는 유병호 사무총장 SLIDE[머니S포토] 감사원 국정감사, 대화하는 최재해·유병호 SLIDE[머니S포토] 법제사법위원회 감사원 국정감사 SLIDE[머니S포토] '2022 국정감사' 여야 간사와 대화하는 김도읍 위원장 SLIDE[머니S포토] 감사원 국정감사, 여야 신경전으로 파행 SLIDE[머니S포토] 국정감사 증인 선서하는 최재해 감사원장 SLIDE[머니S포토] 2022 금감원 국감, 인사 나누는 이복현·강병원 SLIDE[머니S포토] 금감원 "금융권 횡령사고 및 이상 외환거래 등 신속·강력 대응" SLIDE[머니S포토] 이복현 "공매도 국민 눈높이 맞춰 형평성 있게 보완" SLIDE[머니S포토] 2022 금감원 국정감사, 의견 나누는 이복현·이명순 SLIDE[머니S포토] 금감원 이복현 "불법·불공정 거래행위 뿌리째 뽑을 것" SLIDE[머니S포토] 2022 정무위 국감, 질의 답변하는 이복현 금감원장 SLIDE[머니S포토] 금감원 "소상공·중소기업, 충격없이 연착륙하도록 지원" SLIDE[머니S포토] 이복현 "보이스피싱 등 민생침해 금융범죄 척결위해 총력" SLIDE[머니S포토] 2022 한은 국감, 마스크 고쳐쓰는 이창용 총재 SLIDE[머니S포토] 한은 이창용 "IMF 내 韓 외환보유고 적다는 인원 없어" SLIDE[머니S포토] 이창용 'PF·제2금융권 부실 현실화..."문제 될 수 있어"' SLIDE[머니S포토] 통화스와프 관련 질의 답하는 이창용 한은 총재 SLIDE[머니S포토] 한은 이창용 "물가 내년 1분기까지 5%대...하반기 내려갈듯" SLIDE[머니S포토] 2022 국회 기재위 국감, 답변하는 한은 이창용 총재 [기자수첩] 기업 혁신 막는 규제, 이제 버릴 때가 됐다 소비자 안전·환경 등과 관련된 기업 규제는 엄격해야 한다. 반면 미래로 도약하기 위한 혁신만큼은 길을 열어줘야 발전 속도가 빠르고 세계시장을 주도할 수 있다.국내 기업은 규제에 발목이 잡혀 이 같은 논리와 늘 거리가 멀었다. 언제나 현실과 동떨어진 규제가 변화의 흐름을 끊고 발전을 막았다. 편리한 서비스를 원하는 소비자만 피해를 봤다.모빌리티 플랫폼 타다 사례가 대표적이다. 최근 서울중앙지방법원 형사항소1-1부(부장판사 장찬·맹현무·김형작)는 타다를 불법 운영한 혐의로 재판에 넘겨진 이재웅 전 쏘카 대표와 쏘카의 전 자회사 브이씨앤씨(VCNC)의 박재욱 전 대표에 대한 항소심 선고 공판에서 무죄를 선고했다. 이들에게 적용됐던 혐의는 "여객자동차운수사업법" 위반이다. 타다는 운전자가 딸린 11인승 승합차를 이용자에게 빌려주는 서비스다. 이용자는 타다 서비스 이용을 위해 스마트폰 애플리케이션(앱)으로 호출하면 된다. 타다의 운영사이자 과거 쏘카의 자회사였던 VCNC는 쏘카에게 렌.. [법률S토리] 과세특례 활용으로 절세해 볼까[고수칼럼] 계속되는 금리인상 폭탄… 시장이 내딛는 발걸음 따라가야[청계광장]노동기본권에 대한 발상의 전환[기자수첩] 네카오 보험 비교·추천, 이대로 괜찮을까? 제770호한화, 세계 최고의 방위산업체를 꿈꾸다 14년 만에 대우조선 품는 한화, '한국의 록히드마틴' 정조준 김승연에서 김동관으로… 대 잇는 'M&amp;A 승부사' DNA 새 판 짜는 한화, 중심엔 '김동관 리더십' 한화, 대우조선 이어 KAI도 품을까 제769호재개발·재건축 변함없는 '복마전' [르포] 인천 숭의5구역 'SK vs 두산', 시공사 선정 난항 [르포] 신반포15차 '2차전'… 대우건설 vs 롯데건설 또 만났다 잠실 미성·크로바 벌금형 받은 '롯데건설'… 시공계약 유지할 수 있을까 제768호민간 주도 성장, 다시 뛰는 대한민국 '퍼펙트 스톰' 경고음… 돌파구는 '민간 주도 성장' 위기극복 팔 걷은 기업들… 한국 도약 이끈다 기업 끌고 정부 밀고… K-반도체, 공급망 주도권 쥔다 기업이 여는 '뉴 스페이스'… 민간 우주시대 활짝 "이번엔 K-원전"… 글로벌 시장 '정조준' 회사소개 정기구독 사이버몰이용약관 저작권규약 개인정보처리방침 광고안내 독자의견 머니앤밸류   서울시 종로구 청계천로 11(서린동, 청계한국빌딩)   제호: 머니에스   대표이사/발행인/편집인: 박정용등록번호:서울 아01082    등록일/발행일:2010.1.5    사업자등록번호 101-81-94590통신판매신고번호 제 01-1022호    호스팅사업자 주식회사 후이즈전자우편주소 moneys@mt.co.kr    Tel: 02-724-0959    청소년보호책임자: 강인귀 COPYRIGHT © MONEYS ALL RIGHTS RESERVED.</t>
+  </si>
+  <si>
+    <t>제주도·스페인, 관광·문화 교류 활성화 ‘맞손’ :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 15℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV 경찰, 대전 현대 아웃렛 참사 관련 현대백화점그룹 본사 압색 [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도·스페인, 관광·문화 교류 활성화 ‘맞손’ 등록 2021.10.20 17:10:21 작게 크게 기사내용 요약 구만섭 제주지사 권한대행·주한 스페인 대사 면담 [제주=뉴시스] 우장호 기자 = 20일 오후 제주도청 2층 도지사권한대행실에서 후안 이그나시오 모로(왼쪽) 주한 스페인대사와 구만섭(오른쪽 가운데) 제주도지사권한대행이 면담하고 있다. 이날 면담은 지난 6월 문재인 대통령의 스페인 순방 당시 한국과 스페인 간 관광교류 활성화 일환으로, 스페인 '산티아고 순례길'과 한국 '제주 올레길'에 상호 상징구간을 만들기로 논의한 데 따른 후속 조치다. 2021.10.20. woo1223@newsis.com[제주=뉴시스] 강경태 기자 = 제주특별자치도와 스페인이 관광·문화 분야 교류 활성화를 위한 협력을 강화하기로 했다. 구만섭 제주지사 권한대행은 20일 오후 제주도청 집무실에서 후안 이그나시오 모로 비야시안 주한 스페인 대사와 면담하고, 제주 올레길과 스페인 산티아고 순례길 상호 상징구간 설치 등 공동 마케팅 추진 방안에 대해 논의했다. 후안 이그나시오 주한 스페인 대사는 “코로나19로 침체된 관광업을 회복하기 위해 한국과 많은 교류를 하면서 지난 2년간 한국-스페인 관계를 격상시켰다”며 “특히 관광분야로 한국에서 관광지로 유명한 제주도와 교류하고 싶다”고 말했다. 이어 “제주 올레길과 산티아고 순례길에 상호 상징구간을 설치해 관광객에게는 상호 의미 있는 상황이 될 것 같다”며 “향후 한국에서 스페인을 홍보할 수 있는 기관을 구축하게 된다면 제주도 그중에 하나가 됐으면 한다”고 덧붙였다. 이에 구만섭 권한대행은 “서로 상징의 길을 만들고 공동으로 홍보를 하게 된다면, 서로가 윈윈할 수 있는 좋은 계기가 될 것이다”라며 “제주에 스페인 홍보 기능을 할 수 있는 전담 기구를 설치하는 것도 좋은 방법 중 하나”라고 답했다. 또 “이번 상호 협력을 통해 도민들도 스페인 국민들이 제주도를 방문할 것이라는 기대가 커지고 있다”며 “이를 통해 양국 관계가 진전되길 바라며, 스페인과의 협력관계 증진을 위해 계속 고민하겠다”고 전했다. 한편 후안 이그나시오 주한 스페인 대사는 오는 21일 오전 제주올레 1코스를 답사하고, 상징물 설치 장소 확인 및 홍보 방안에 대해 구체적으로 논의할 예정이다. ◎공감언론 뉴시스 ktk2807@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 '문자 논란' 유병호 "송구스럽다… 소통은 정상적인 것" 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 윤석열 대통령 출근길 문답 "북한, 핵으로 얻을 수 있는 것 없어" 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 고우석, 바람의 가문에 장가 간다…이종범 딸과 결혼 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 오늘의 헤드라인 "'학업성취도 평가' 5년만에 부활  기초학력 수준 정밀하게 가린다 5년 전 폐지됐던 학력 전수평가가 사실상 부활한다.기초학력 미달 학생이 늘어나는 현실을 타개하기 위한 고육책이다. 교육부는 11일 국무회의에서 제1차 기초학력 보장 종합계획을 보고했다고 밝혔다. 이번 계획은 올해 시행된 기초학력보장법에 따른 첫 종합 방안으로, 국가가 모든 학생의 기초학력을 보장해야 한다는 법적 책임을 담보하기 위해 마련됐 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 대전 아웃렛 화재 관련 현대百 본사 압수수색 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "코레일 운영 수도권 역사 절반이 외주…악순환 반복 "소상공인 과태료 최대 70% 감면 추진…법령 정비 "러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 3'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 4尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 5尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3우크라전 229일, 러 키이우 등 전역 미사일 공습…최소 111명 사상(종합) 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3삼성전자 사들이기 시작한 외국인…분위기 반전될까 4KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 5엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 3삼성전자 사들이기 시작한 외국인…분위기 반전될까 4KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 5코스피, 1.78% 하락한 2193.02 출발 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 33분기 국내 주식시장 시총 630조 증발…카카오 '반토막' 4국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 5①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 3연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 두산 베어스가 11일 올 시즌을 끝으로 계약 기간이 만료되는 김태형 감독과 재계약을 하지 않기로 결정했다고 밝혔다. 김 감독은 2015시즌부터 두산 베어스의 지휘봉을 잡아 2022시즌까지 정규시즌에서 645승 19무 485패를 거뒀다. 또한 2015년부터 2021년까지 7년 연속 한국시리즈 진출에 성공했고, 세 차례 한국시리즈 우승을 이끌었다. 두산 베어스 관계자는 "구단 전성기를 이끌어준 김태형 감독의 노고에 감사드린다. 팀의 장기적인 방향성 등을 고려해 이같은 결정을 했다"고 말했다. 두산은 마무리 훈련과 내 2이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 3'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 4진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 BAT, '글로하이퍼X2' 출시 기대감…연말 전자담배 3파전 격화하나 창원대학교, 지역과 함께 '대동제' 12~13일 연다 금호석유화학 주가, '나홀로 질주' 비결은 김해서부문화센터, '와야G 율하 가든파티' 개최 '오송역→청주오송역' 이번엔 바뀌나?…주민의견 적극 수렴 美 래퍼 더 게임, 국내 공연 앞두고 일방적 불참 통보 지어소프트, 8회차 CB 전환가액 하향 조정 英정보기관 수장 "러시아인들 푸틴 우크라 침공 비용 각성 시작" 금감원, 금융사 직원에 '프리패스 출입증' 발급 경북대병원 제왕절개, 강원대병원보다 100만원 이상 비싸 권익현 군수, '세계로 웅비하는 부안 대도식 비약' 최선 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 금감원, 금융사 직원에 '프리패스 출입증' 발급 경북대병원 제왕절개, 강원대병원보다 100만원 이상 비싸 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 민주당 광주시당, 10개 상설위 위원장 공모 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 박지원, 강대강 대치 여·야에 "북핵실험 5일 남아…이럴 때 아냐" "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 전재수 의원, 행정안전부 특별교부세 9억원 확보 英정보기관 수장 "러시아인들 푸틴 우크라 침공 비용 각성 시작" 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 中, 대만 국경일에도 무력시위…臺국방부장 "中 도발" 9월 중국 승용차 판매량 194만대...전년비 21%↑ 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 우크라 외무 "푸틴, 우크라에 보복 테러…영토 수복 작전 계속"(종합) 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 금호석유화학 주가, '나홀로 질주' 비결은 금감원, 금융사 직원에 '프리패스 출입증' 발급 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 9월 중국 승용차 판매량 194만대...전년비 21%↑ 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 올해 태풍에 침수차 2만대…중고차 환불 특약사항 필수 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 금호석유화학 주가, '나홀로 질주' 비결은 지어소프트, 8회차 CB 전환가액 하향 조정 금감원, 금융사 직원에 '프리패스 출입증' 발급 브이원텍, LG전자와 33억 규모 공급계약 체결 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 에스엠, 12~13일 기업설명회 신한투자증권, 해외주식 실전투자대회 개최 현대카드, 인플루언서 대상 '인플카 현대카드' 출시 보험업계, 최근 10년 새 PF대출 10배 증가 한창, 2차전지 장비업체 셀틱 조건부 투자계약 체결 국내외 식품안전정보, 조건 제약 없이 검색한다 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 TSMC, 삼성전자 제치고 반도체 매출 '세계 1위' 오른다 롯데제과, 빵빠레 샌드 카스타드 아이스크림 전량 회수 인쇄·복사·스캔 한번에…한국엡손, 스마트 복합기 3종 출시 김대중컨벤션센터서 광주식품대전 개막…13~16일 한화디펜스 첨단 다목적무인차량, 美육군 성능시연 참가 롯데케미칼, 일진머티리얼즈 인수…2.7조원 본계약 체결 토요타 후원 소외계층 오케스트라 연주회 개최 선생님들의 교수법 토론의 장…구몬 '학습연구대회' 성료 "ESG 리스크, 인권·안전 등 이슈 대응에 달려" 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 국내외 식품안전정보, 조건 제약 없이 검색한다 카카오게임즈, '가디언 테일즈' 주제 오케스트라 예매 오픈 파수, 문서관리 플랫폼 ‘랩소디’에 저장소 통제 기능 추가 "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" 美 애브포인트, 에센셜 인수…韓 SaaS 시장 본격 진출 롤러코스터 탔다가 911 부재중전화 왜?…"아이폰14가 구조요청 보내" 팬데믹 기간 전세계 '수면 질' 감소…韓 수면시간 늘었지만 평균 이하 박원재 부원장 "NIA, 지능정보시대 도약 견인차 역할" 경북도, '포스텍 연구중심 의대 설립' 박차… 바이오·의료산업 전문인력 양성 울산대·KAIST, 친환경 초고내구성 아연-공기전지 개발 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 창원대학교, 지역과 함께 '대동제' 12~13일 연다 '오송역→청주오송역' 이번엔 바뀌나?…주민의견 적극 수렴 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 노상방뇨 지적한 노인 무차별 폭행한 50대 실형 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 연세대 K-NIBRT사업단, 싸이티바 코리아와 인력양성 등 업무협약 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 경남도교육청, 9급 건축직 경력자 15명 뽑는다 '한동훈 어록집' 출판사 "韓 장관, 말만 하면 확대 재생산...조회수 등 신드롬" 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 의정부 행복로서 14일 뷰티 페스티벌 열린다 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 파주시, 12월까지 긴급복지지원제도 확대 지원 고양시, 일산문화공원→'일산문화광장'으로 명칭 변경 ‘인천항 스마트 오토밸리 조성사업’ 운영사업자 선정 재공모 추진 이동환 고양시장 "국토부 1기 신도시 정비사업 로드맵 환영" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" [화성소식] 시, U-만성질환관리센터 무료 심전도검사 등 진행 등 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 화성 반려문화 축제 15일 개최…시민 참여·체험형으로 김해서부문화센터, '와야G 율하 가든파티' 개최 '오송역→청주오송역' 이번엔 바뀌나?…주민의견 적극 수렴 경북대병원 제왕절개, 강원대병원보다 100만원 이상 비싸 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 제9대 대구시의회 개원 100일…"선진 정책 의회 지향" 민주당 광주시당, 10개 상설위 위원장 공모 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 '행사 취소에 환불 않고 추가입장'…세계군문화엑스포 '물의' 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 해남군, 농식품부 '가루쌀 교육·컨설팅사업' 5개소 선정…전국 최다 창원대학교, 지역과 함께 '대동제' 12~13일 연다 "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 마산국화축제장에 국내 최장 200m 국화터널 만든다 3년 만에 돌아온 부산자갈치축제…13일 개막 2022경기국제웹툰페어 폐막, 관람객 2만2795명 방문 수원시 선정 아름다운 가을명소…광교산 수변 산책로 등 10곳 소개 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 김주형은 될성부른 나무…한국 무대서도 최연소 기록 KPGA 김한별, 골프채 부러뜨리고 캐디에 폭언…상벌위 회부 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 김승기 캐롯 감독, 가입비 미납에 "제가 말씀드릴 입장 아니다" 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" 美 래퍼 더 게임, 국내 공연 앞두고 일방적 불참 통보 조성하 "결혼할 때 쥐뿔도 없었다…母도 말려" 클라씨, 컴백 카운트다운…'데이 앤드 나이트' 일정 공개 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 케플러, 첫 팬미팅 성료..."더 많이 못해줘서 미안" 이지현, 이혼소송 두번으로 보낸 30대…"부모님께 나는 죄인" 박시은♥진태현, 아픔 딛고 일터 복귀…"오랜만에 광고 촬영" '진검승부' 도경수·김상호, 본격 라면 독대…아웅다웅 케미 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 6울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 김진부 경남도의회 의장 "행정통합 공감하나 실현 힘들 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 세상에 이런 일이 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>"제일가고 싶은 곳 제주"...제주도, 관광 홍보마케팅 진행 닫기 전체기사 최신뉴스 GAM 라씨로 영상 영상 포토 포토 정치 대통령실 국회·정당 통일·외교 국방·안보 북한 한민족·다문화 경제 경제일반 경제정책 지표 공정거래 농림수산 공기업 과학기술 사회 사건·사고 법원·검찰 재난 교육 복지 노동 환경 교통 여성·아동 서울시 날씨 인사 부고 글로벌 특파원 글로벌정치 글로벌경제 미국·북미 중남미 일본 유럽 동남아·호주 베트남 인도 중동 아프리카 러시아 동구 기타 중국 정치 경제일반 정책 마켓·금융 산업 기업 신기술 뉴비즈 문화 피플 컬럼 한중동향 그래픽 韓流中心 산업 재계·경영 전기·전자 자동차 항공 물류 철강 조선 화학 중공업 에너지 상사 ICT 중기·벤처 생활경제 제약·바이오 증권·금융 은행 증권 보험 카드 시황 주식 펀드 채권·외환 가상통화 VC 저축은행·대부업 핀테크 부동산 정책 건설 분양 수익형부동산 전국 지자체 단체장 강원 경기남부 경기북부 부산·울산·경남 대구·경북 충북 광주·전남 대전·충남·세종 전북 인천 제주 문화·연예 문화일반 문화정책 공연 전시·아트 출판 종교 미디어 드라마·예능&amp;쇼 영화 가요 패션뷰티 국내 연예 해외 연예 스포츠 해외스포츠 국내스포츠 축구 야구 골프 오피니언 오피니언 회사소개 CEO 인사말 뉴스핌은 주요상품 가치·철학 발자취 조직도 윤리강령 찾아오시는 길 사업·광고문의 사업제휴 광고문의 유료서비스 유료안내 결제서비스 안내 환불정책 고객센터 이용약관 개인정보취급방침 청소년보호정책 이메일주소수집거부 저작권규약 고충처리제도 수용자권익보호위원회 회원 로그인 아이디·비밀번호찾기 회원가입 로그인 뉴스핌제보 닫기 검색 패밀리 사이트 뉴스핌통신 PLUS 월간 ANDA 中文 안다쇼핑 ANDA 뉴스 닫기 전체메뉴 영상 포토 정치 경제 사회 글로벌 중국 산업 증권·금융 부동산 전국 문화·연예 스포츠 오피니언 #GAM #라씨로 대통령실 국회·정당 통일·외교 국방·안보 북한 한민족·다문화 경제일반 경제정책 지표 공정거래 농림수산 공기업 과학기술 사건·사고 법원·검찰 로펌 재난 교육 복지 노동 환경 교통 여성·아동 서울시 날씨 인사 부고 특파원 글로벌정치 글로벌경제 미국·북미 중남미 일본 유럽 동남아·호주 베트남 인도 중동 아프리카 러시아 동구 기타 정치 경제일반 정책 마켓·금융 산업 기업 신기술 뉴비즈 문화 피플 컬럼 한중동향 그래픽 韓流中心 재계·경영 전기·전자 자동차 ESG 항공 물류 철강 조선 화학 중공업 에너지 상사 ICT 중기·벤처 생활경제 제약·바이오 은행 증권 보험 카드 시황 주식 펀드 채권·외환 가상통화 VC 저축은행·대부업 핀테크 정책 건설 분양 수익형부동산 지자체 단체장 강원 경기남부 경기북부 부산·울산·경남 대구·경북 충북 광주·전남 대전·충남·세종 전북 인천 제주 문화일반 문화정책 공연 전시·아트 출판 종교 미디어 드라마·예능&amp;쇼 영화 가요 패션뷰티 국내 연예 해외 연예 해외스포츠 국내스포츠 축구 야구 골프 홈 전국 지자체 속보 [영상] 이복현 금감원장 "도이치모터스 관련 경찰에 자료 요청 오지 않았다"큐브엔터, (여자)아이들 미니 5집 'I love' 선주문 70만장 돌파코웨이, KCSI 조사 침대·정수기 만족도 1위제주 도내 사회적경제기업 총 638개소…제주도 "맞춤형 지원"[부고] 지영흔(하나은행 홍보팀장)씨 부친상에이프로젠, 휴미라 바이오시밀러 특허 출원...생산성 증대삼성전자, 웰스토리 검찰 압수수색 불복 준항고 취하안실련ᐧ자살예방 시트백커버 1800세트 전국모범운전자연합회 기증 시티랩스, '그리고'에 국내 최초 운전면허 명의도용 방지 안면인증 솔루션 공급이엔플러스, 2차전지 양산 핵심설비 반입 완료…"내년 양산 준비 순항"안성 한 지역농협서 5억원 빼돌린 직원 자수...검찰 송치[국감] 송석준 "토스·카카오페이 등 선불충전 악용 보이스피싱 4년간 310배 폭증"3분기, 국내 기업 자금조달 250조9000억원…전년比 22.2%↓[국감] 정청래 "尹대통령, 디지털 키우겠다면서 예산은 삭감? 앞뒤 안맞아"[국감] 덕수궁 석조전 대한제국역사관, 국립박물관이지만 "유물 구입비 전무"신라젠, 내일 상폐여부 결정...17만 개미 운명은?[속보] 대전경찰청, '대전 화재' 관련 현대백화점그룹 본사 압수수색 [국감] 이복현 금감원장 "보험사 GA 설립 시 부당행위 면밀히 보겠다"금투협회 21일 차기 회장 선임 본격화... 서명석·전병조 등 5인 거론 김포-하네다 항공운항 30일부터 주 28회→56회로 늘린다 더보기 "제일가고 싶은 곳 제주"...제주도, 관광 홍보마케팅 진행 기사입력 : 2021년10월21일 21:00 최종수정 : 2021년10월21일 21:00 카카오톡 페이스북 트위터 카카오스토리 밴드 가 + 가 - 프린트 [제주=뉴스핌] 변준성 기자 = 최근 전 세계 94개국 시청률 1위를 기록하고 있는 넷플릭스 드라마 '오징어게임'에서 제주도가 언급되면서 세계적으로 제주에 대한 관심이 높아지고 있다. 특히, 미국 시사주간지 '뉴스위크'는 10월 첫 주 기사에서 '오징어게임' 참가자가 방문하고 싶어하는 제주를 '한국의 하와이'로 소개하기도 하는 등 해외언론에서도 주목하고 있다. 제주도가 드라마 촬영지 등 '한류 속 제주' 활용 관광홍보 마케팅에 주력하고 있다. 비치클린 프로젝트 [사진 =제주특별자치도] 2021.10.21 tcnews@newspim.com 이 같은 상황을 제주관광 활성화의 호기로 활용하기 위해 제주특별자치도가 국내·외 잠재 관광객들을 대상으로 '가장 가고 싶은 곳, 제주'를 각인시키기 위한 홍보 마케팅에 주력하고 있다. 도는 해외홍보사무소와 함께 '제일 가고 싶은 장소'를 선정하는 투표와 돌하루방 달고나 온라인 뽑기 이벤트 등도 진행 중이다. 도는 한국 드라마(K-drama)·케이팝(K-pop) 촬영장소나 한국음식(K-food) 등과 연계해 '한류 속 제주'를 살펴보는 마케팅을 전개해 여행트렌드를 주도하고 있는 세계 각국 MZ세대의 이목을 끌 예정이다. 이와 관련, 도는 오는 11월 개최 예정인 온라인마케팅 페스티벌 '제주 안트레'에 국내·외 유명 인플루언서를 제주로 초청해 한류 속 제주 콘텐츠를 소개할 계획이다. 또한 코로나19로 비대면·자연친화 여행트렌드가 각광받음에 따라 글로벌 안심·안전·치유 웰니스 인증 관광지로 자연숲 치유(4개소), 힐링‧명상(3개소), 뷰티‧스파(1개소), 만남‧즐김치유(3개소)도 지속적으로 발굴·홍보하고 있다. 제주도는 앞으로 지속가능한 관광·자원순환사회 기여를 위해 친환경 사회적기업 등과 협업해 '책임관광 의식 확산' 마케팅도 병행해 나갈 방침이다. tcnews@newspim.com GAM - 해외주식 투자 도우미 [김특의 뇩멍] 스벅보다 싸고 던킨보다 맛있는 커피를 먹다 5년 새 주가 10배, 외국인이 쓸어 담는 화장품 기대주 '프로야' 라씨로 - 국내주식 투자 도우미 범한퓨얼셀, 지상 모빌리티용 연료전지 사업 확장..."글로벌 시장 확대 수혜" 코난테크놀로지, 16년 투자한 SK커뮤니케이션즈…락업 물량 20% 풀린다 [뉴스핌 베스트 기사] 사진 北 리설주, 김정은과 군사훈련 '이례적' 동행…핵무력 자신감 표출 [서울=뉴스핌] 이영태 기자 = 북한 김정은 노동당 총비서 겸 국무위원장 부인 리설주 여사가 김 위원장이 직접 지휘했다는 지난 보름간의 북한의 탄도미사일 시험발사 현장에 모습을 드러낸 것으로 10일 확인됐다. 북한 관영 조선중앙통신과 조선노동당 기관지 노동신문은 노동당 창건 77주년 기념일인 이날 "경애하는 김정은 동지께서 조선인민군 전술 핵운용 부대들의 군사훈련을 지도했다"면서 김 위원장이 북한군 전술핵운용부대·장거리포병부대·공군비행대의 훈련을 직접 지휘했다고 보도했다. 북한 김정은 국무위원장 부인 리설주 여사가 지난달 29일부터 보름간 진행된 전술핵운용부대 군사훈련을 김 위원장과 함께 참관했다고 북한 노동신문과 조선중앙통신이 10일 보도했다. 리 여사는 지난 2013년 6월과 2016년 12월 김 위원장의 공군 부대 훈련 참관에 동행한 바 있다. 2022.10.10 [사진=노동신문] 북한 언론들은 기사와 함께 리 여사가 김 위원장과 둘이서 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 사진 한 장을 공개했다. 사진은 KN-25가 점화되는 순간에 촬영된 듯 김 위원장은 왼손에 담배 한 개비를 들고 얼굴을 살짝 일그러뜨린 채 엄지손가락으로 귀를 막고 있고, 리 여사 역시 바로 옆에서 표정을 한껏 찡그리고 귀를 막는 모습을 담았다. 북한 언론이 최고지도자 부부가 귀를 막는 사진을 특별히 선택해 실은 것은 초대형 방사포 등의 위력을 강조하려는 의도가 담긴 것으로 풀이된다. 리 여사는 북한이 3대 세습 정당화로 내세운 '백두혈통'의 상징인 백두산 백마 등정으로부터 '선대 수령'의 시신이 있는 금수산태양궁전 참배, 열병식 사열 등 주요 행사 때 남편과 동행했으나, 미사일을 발사하는 군사훈련 현장에 동행한 것은 이례적이다. 전문가들 사이에선 공직을 맡고 있지 않은 리 여사의 이례적 군사훈련 참관과 동행은 북한이 자신들의 핵능력에 대한 자신감을 표출함과 동시에, 이번 도발이 단순한 '시험발사' 수준을 넘어서는 군사행보임을 보여주기 위한 것이라는 평가가 나온다. 북한은 그에게 '여사' 또는 '동지'라는 호칭을 쓰며 퍼스트레이디의 지위를 확실히 했다. medialyt@newspim.com 2022-10-10 14:04 사진 "급매물도 아직 비싸"…내집마련 수요 아직 '머뭇' [서울=뉴스핌] 최현민 기자 = 부동산 시장 침체기로 집값이 하락세를 보이자 급매물이 쏟아지고 있지만 수요자들은 내집 마련에 선뜻 나서지 못하고 있다. 문재인 정부 기간 집값이 급등한 탓에 여전히 비정상적으로 높다는 인식이 많아서다. 최근 비교적 낮은 가격에 급매물이 나오고 있지만 이들 매물 역시 5년전 가격보다 70% 가량 높은 수준이다. 특히 당시 아파트를 살수 있었던 금액으론 현재 전세살이도 힘들다. 수천만원 호가를 내린 매물들이 외면받는 이유다. 내년까지 급매물은 지속적으로 늘어날 전망이 우세하다. 점차 시장에 급매물들이 쌓일 경우 집값이 더 낮아질 것이란 기대감에 매수 심리가 더욱 위축될 것으로 보인다. 10일 부동산업계에 따르면 시세보다 저렴하게 내놓는 급매물이 증가하고 있지만 정작 내집마련 수요를 비롯한 실수요들은 '버티기'를 지속하고 있는 중이다. [서울=뉴스핌] 김학선 기자 =서울 용산구 일대 아파트 모습. 2022.08.21 yooksa@newspim.com ◆ 5년전 아파트 매매 가능했던 금액, 올해는 전세살이도 어려워 최근 주택시장에는 가격을 비교적 큰 폭으로 낮춘 급매물이 나오고 있다. 집값의 바로미터가 되는 강남4구(강남·서초·송파·강동)도 예외는 아니다. 특히 1000세대 이상 대단지 아파트에서도 수억원이나 떨어진 급매물들이 속속 나오고 있다. 강남구 일원동 지역의 아파트 매매 매물은 294건으로 6개월 전 171건에 비해 71.9% 증가했다. 같은 기간 송파구 잠실동 지역의 매물 역시 557건에서 817건으로 46.6% 증가했다. 강동구 명일동(226건→323건)은 42.9%, 서초구 방배동(481건→641건)은 33.2% 증가했다. 하지만 정작 거래는 활발하게 이뤄지지 않고 있는 모양새다. 호가를 수천만원 내린 매물도 실수요자들에게 외면받고 있다. 문재인 정권이 출범한 2017년 이후 급등한 집값이 여전히 높기 때문이다. KB부동산에 따르면 지난달 기준 전국의 아파트 평균 매매가격은 5억5601만원이다. 이는 2017년 9월(3억2936만원) 대비 68.8% 높은 수치다. 올해 들어 집값이 하락세를 보이고 있지만 여전히 5년 전 가격과 비교하면 70% 가까이 높은 수준이다. 전세가격 역시 크게 올랐다. 전국의 아파트 평균 전세값은 2017년 9월 2억4063만원에서 지난달 3억3855만원으로 40.7% 증가했다. 당시 서울 아파트를 살 수 있던 금액으로는 5년이 지난 지금 전세살이도 어려워진 것이다. 같은기간 서울만 놓고 보면 아파트 평균 매매가격은 2배 가까이 올랐다. 2017년 6억3924만원이었던 서울 아파트 평균 매매가격은 5년만에 99.6% 증가한 12억7624만원으로 급등했다. 경기와 인천 역시 같은 기간 각각 87.2%, 74.9% 증가했다. 지방 5개 광역시(대전·대구·울산·부산·광주) 아파트 평균 매매가도 증가했다. 지난달 기준 매매가격은 3억9928만원으로 2017년(2억6522만원) 대비 50.5% 증가했다. [서울=뉴스핌] 윤창빈 기자 = 서울 송파구 공인중개사에 붙어있는 아파트 매매 시세표의 모습. 2022.02.11 pangbin@newspim.com ◆ "시세 대비 크게 낮은 급매물 거래…2017년 수준 하락 어려울 것" 자금 여력을 갖춘 실수요자의 경우 급매물 거래를 통해 내 집 마련에 나설 여지가 커진 상황이다. 다만 내년까지 금리인상 가능성이 있어 시세 대비해 크게 낮아진 매물만 간간히 거래될 가능성이 크다. 여경희 부동산R114 연구원은 "내 집 마련이 급한 실수요자들이 있어 시세 대비 10% 이상 하락한 매물들 가운데 굉장히 저렴한것 위주로만 꾸준히 거래가 될 것"이라며 "다만 내년 주택 경기도 어려울 것이라고 보는 시각이 있어 절대적으로 매수세가 크게 늘진 않을 것으로 전망된다"고 내다봤다. 여 연구원은 "그동안 집값이 많이 올랐지만 대출이 여의치 않은 부분이 있다"며 "수도권 같은 경우는 조정대상지역이나 투기과열지구로 묶여 있는 지역이 있다보니 지방보다 수요는 많은데 대출은 받기 어렵고, 가격은 더 높아 매수자들 진입장벽을 높이는 요인이 될 수 있다"고 설명했다. 그러면서 "금리 인상에 물가까지 오르는 상황에서 연소득을 한푼도 안쓰고 모아야 집한채를 살 수 있는 수준이 됐다"면서 "아직까지 매수하기에는 주택 가격이 심리적으로 높다고 인식될 수 있다"고 덧붙였다. 다만 2017년도 수준 정도까지 큰 폭으로 집값이 하락하긴 어려울 것이란 전망이 나온다. 여 연구원은 "우리나라 대부분 자산이 부동산 가운데서도 주택에 집중돼있다"면서 "2017년도 수준까지 하락한다면 대출 원리금 상환이 어려워진 하우스 푸어 등 사회적으로 문제가 되는 부분이 있을 것"이라고 말했다. min72@newspim.com 2022-10-10 06:01 尹대통령 지지율, '지지층 결집'에 0.8%p 소폭 반등 32% "美증시, 이번 어닝시즌에 더 떨어진다…애플 실적이 관건" [단독] 경찰 출석하는 박홍률 목포시장...공직선거법위반 혐의 피소 삼성전자 입주한 키이우 건물, 러 미사일에 피격 삼성바이오, 이르면 내일 4공장 가동…이재용 현장 방문 가능성 [주요포토] '하이서울패션쇼, '3년 만에 직관' 법제사법위원회의 감사원 국정감사 한글날 연휴 끝...쌀쌀한 출근길 코스피 2%대 급락, 원·달러 환율 20원대 급등 노동당 77주년 창건일, 고요한 북한 '서울을 달리다' 3년만에 열린 서울세계불꽃축제 안다 TV 영상 [영상] 유병호, '대통령실 문자 논란' 첫 해명..."송구하긴 하지만 정상적 의사소통" 투자직GAM 영상 [투자직감] ①쿠팡, 미국 공모주 물림의 법칙? 회사소개 주요상품 사업제휴 개인정보취급방침 청소년보호정책 고충처리제도 수용자권익보호위원회 이용약관 광고문의 페이스북 네이버 포스트 플립보드 카카오토픽 RSS 한국신문윤리위원회 서울시 영등포구 국제금융로 70, 미원빌딩 906호 편집국 : 02-761-4409 발행인 : 민병복 편집인 : 박승윤 뉴스핌통신등록번호 : 문화,나00032등록일자 및 발행일자 : 2018.3.22 뉴스핌등록번호 : 서울아00194등록일자 및 발행일자 : 2006.4.26 COPYRIGHT©NEWSPIM CO., LTD. ALL RIGHTS RESERVED. Top으로 이동</t>
+  </si>
+  <si>
+    <t>제주도의회 "관광객에 환경보전기여금 부과해야" 제기 - 노컷뉴스 전체메뉴보기 노컷뉴스메인가기 제주도의회 "관광객에 환경보전기여금 부과해야" 제기 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 CBS 전국 네트워크 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 닫기 크리스천뉴스 노컷비즈 노컷TV 노컷뉴스 전국 최신 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 오피니언 포토 그래픽 노컷브이 핫이슈 스페셜 기획 제보 네이버 구독 다음 구독 카카오 구독 삭제 검색 자동완성 끄기 뉴스 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 지역 서울 경인 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 일반 이슈 핫이슈 스페셜 기획 딥뉴스 노컷체크 인터랙티브 타임라인 시사 김현정의 뉴스쇼 한판승부 김덕기의 아침뉴스 정다운의 뉴스톡 530 오피니언 칼럼 뒤끝작렬 기고 노컷브이 그래픽 포토 노컷TV 씨리얼 팟캐스트 닫기 전국 제주 제주도의회 "관광객에 환경보전기여금 부과해야" 제기 제주CBS 박정섭 기자 메일보내기 2021-10-19 14:45 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 제주도의회 환경도시위원회, 제주도 환경보전국 행정사무감사에서 추진 요구제주도 "국제자유도시특별법 8단계 제도개선안에 제출, 의원입법도 고려" 19일 제주도 환경보전국을 상대로 한 제주도의회 환경도시위원회 행정사무감사. 제주도의회 제공제주 관광객에게 쓰레기와 하수오염 처리 비용을 부과하는 원인자부담금 성격의 환경보전기여금 도입 필요성이 또다시 행정사무감사에서 제기됐다. 19일 제주도 환경보전국을 상대로 한 제주도의회 환경도시위원회 행정사무감사에서 강성의 의원은 "환경자원 총량 관리와 제주 보호를 위한 재원 마련 차원에서 환경보전기여금이 필요하다"며 도입 필요성을 주장했다. 강 의원은 "환경보전기여금에 대해 도민과 국민 모두 필요성을 느끼는 건 제주라는 환경보전지역에 대한 공감대 때문"이라며 "유네스코생물권보전지역 지정과 세계자연유산 등재 등은 제주자연을 보호할 만한 가치가 있다는 점을 인증받기 위한 것이자 지속관리해야 한다는 것"이라며 의미를 부여했다. 강 의원은 "이같은 보호와 지속관리는 물론 재산권 행사에 제약을 받는 주민들에게 나눠줄 재원 마련 차원에서 환경보전기여금이 필요하다"며 제주도의 적극적인 추진을 요구했다. 송창권 의원도 "환경보전기여금은 관광객들에게 책임있는 환경보전정책에 참여해 달라는 것"이라며 "제주도민들이 합의한 만큼 강력하게 추진해 달라"고 주문했다. 송 의원은 "환경보전기여금 제도가 실행되면 1년에 1500억 원 가량이 예상된다"며 "제주의 환경역량을 키우는 데 도움이 클 것"이라고 밝혔다. 이에 대해 문경삼 제주도 환경보전국장은 "현재 제주국제자유도시특별법 8단계 제도개선안에 환경보전기여금 도입 방안을 제출했다"며 "의원 입법 발의도 고심하고 있다"고 밝혔다. 한편 제주도의 생활폐기물 배출량은 인구 대비 2.3%로, 전국 평균 1.2%보다 2배 가량 높은데 관광객 등의 제주 방문에 의한 것으로 추정된다. 하수발생량과 교통량 유발 효과, 대기오염 도 전국 인구 평균보다 제주도가 많은 이유이기도 하다. 관광객 등 외부인에 발생한 생활폐기물 처리 비용은 2016년 558억 원, 하수 처리비용은 66억 원으로 분석돼 제주방문 관광객 1명의 생활폐기물과 하수도 처리 원가는 4660원으로 추정됐다. 이에 따라 관광객 1명이 1박할 1500원, 렌터카 5000원, 전세버스 이용요금 5％의 환경보전기여금을 부담해야 한다는 연구결과가 나왔다. 더 클릭 검찰 '대장동 의혹' 성남시청 3차 압수수색…시장실·비서실 또 빠져 이재명 "돈다발 사진 날조…김용판, 의원직 사퇴하라" 北이 발사한 탄도미사일은 'SLBM' [칼럼]심상치 않은 물가 적극적인 관리 필요하다 美 정부 "北 15개국 무기수출…위성 2개도 운용" [영상]오세훈 '대장동 그림판' 들고 "이재명, 최대 환수 어불성설" 정부 "예방접종, 단계적 일상회복으로 가는 최선의 수단" "4차유행 감소세 분명…세자릿수 떨어질 확률은 반반" 올해도 '코로나 수능'…확진·격리 수험생 별도시험장서 수능 본다 [영상]"이런 수준을 공천"…'조폭연루설' 김용판에 비판 쇄도[이슈시개] 더 클릭 정진석 "조선, 안에서 썩어 망해…日, 조선왕조와 전쟁 한 적 없다" 동료들 보는 앞에서 엉덩이 때려도…'정직 1개월' 지적장애 가진 동거녀 딸 엉덩이 깨물고 학대한 50대 신화 신혜성, 도난 차량서 음주측정 거부 혐의…현행범 체포 손목에 체인 묶은 남녀?…아슬아슬 수위 높이는 연애 예능 정진석 "日, 조선과 전쟁한 적 없어"…유승민 "천박한 발언" 직격 이재명 "종북몰이 공세, 친일파 같아…한미일 훈련, 尹 소명해야" 경찰, 텔레그램 성착취 '엘번방' 18명 검거…유포자 3명 구속 노벨상 버냉키, 후배 조언 요청에 "내 인생의 교훈은…" 복지장관 340만원, 청년 120만원…연금의 '세대격차' 제주CBS 박정섭 기자 메일 0 0 이 시각 주요뉴스 오늘의 기자 많이 본 뉴스 실시간 댓글 투데이 핫포토 오늘의 핫뉴스닫기 / 이전 다음 닫기 노컷뉴스 회사소개 사업 제휴 광고안내 콘텐츠 구매 제보 이용약관 개인정보 취급방침 편집규약 지역노컷 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 인터넷신문 등록번호 : 서울 아00030 | 등록일자 : 2005.08.30(노컷뉴스), 2007.11.05(노컷TV) 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 | ISSN : 2636-0373 노컷뉴스의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷뉴스 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷스포츠 | 인터넷신문 등록번호 : 서울 아04480 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷스포츠의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷스포츠 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷연예 | 인터넷신문 등록번호 : 서울 아04479 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷연예의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2017 by CBS M&amp;C, 노컷연예 all rights reserved.</t>
+  </si>
+  <si>
+    <t>‘오징어게임’서 언급… 제주도, 한류열풍 타고 관광 마케팅 활발-국민일보 시사 시사 &gt; 전체기사 ‘오징어게임’서 언급… 제주도, 한류열풍 타고 관광 마케팅 활발 외신 “한국의 하와이” 입력 : 2021-10-22 04:07 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 넷플릭스 드라마 ‘오징어 게임’에 제주도가 언급됐다. 세계적으로 제주에 대한 관심이 높아지자 제주도가 한류 열풍을 제주 관광 활성화의 좋은 기회로 활용하기 위해 발빠르게 움직이고 있다.오징어게임에서 출소 이후 딱히 갈 곳이 없어 게임에 지원한 ‘지영’은 ‘새벽’에게 일부러 패한 뒤 게임에서 나가면 “제주도에 가보라”고 했다. 자신은 게임에서 나갈 이유가 없지만 북한에서 동생과 한국으로 건너온 새벽은 희망이 있지 않으냐면서다.오징어 게임이 공전의 히트를 친 이후 해외언론이 제주를 주목하고 있다. 미국 뉴스위크는 최근 기사에서 오징어 게임 참가자가 방문하고 싶어한 제주를 ‘한국의 하와이’로 소개했다. 제주도는 이 틈을 놓칠세라 국내외 잠재 관광객들에게 제주를 각인시키기 위한 마케팅에 주력하고 있다.도는 최근 말레이시아 및 베트남 해외 홍보사무소와 ‘제일 가고 싶은 장소’를 선정하는 투표 이벤트를 진행하고 있다. 오징어 게임으로 화제가 된 달고나를 제주의 상징인 돌하르방과 동백 모양으로 변용한 온라인 뽑기 이벤트를 진행하면서 게임 참여 전 설문을 진행하는 방식이다. 도는 앞으로 일본과 중국 등 9개 해외 홍보사무소와도 같은 방식의 제주 설문 이벤트를 실시하며 제주를 세계에 알려나갈 계획이다.11월에는 구독자 2만명 이상의 국내외 유명 인플루언서를 제주로 초청한다. 한류 속 제주 콘텐츠를 소개하고 이들이 만든 개성 있는 제주 홍보 영상을 전 세계 소셜미디어 이용자들과 공유할 예정이다. 도는 아울러 세계관광기구(UNWTO)가 인증하는 최우수 관광마을에 서귀포 하효마을을 추천하고 위드 코로나 시대 특히 각광 받는 비대면·자연 친화 여행 추세가 제주에 접목될 수 있도록 친환경 관광과 사회적 책임 관광 마케팅도 병행해 나갈 예정이다.제주=문정임 기자 moon1125@kmib.co.kr GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 ‘naver.pay’ 주소, 속았다…8천만원 사기친 피싱사이트 “발렛 직원이 준 차 몰았다”…신혜성, 음주운전에 절도 혐의까지 버스타는 女, 신체 만지고 도망…6급 교육공무원이었다 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 오토바이와 ‘툭’… “괜찮다”더니 병원 20번 갔다 [영상] “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 ‘풀소유’ 논란후 2년, 혜민 근황…“따가운 시선에 상처” [영상] 삼성전자 우크라 지사 건물, 러 미사일에 파손 ‘90년대 강남 큰 손’ 조춘자, 또 사기 행각…징역 7년 ‘무주 일가족 중독’ 합동감식 “보일러 연통, 그을음으로 막혀” [단독] 시중은행도 당했다… 신종 전세사기 일당 검거 14살 제자와 성관계 후 “진짜 사랑”… 전문가 “그냥 범죄” 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 스페인에선 주전… 94분 뛴 이강인, 팀내 최고평점 부하 직원 엉덩이 때렸는데 정직 1개월…‘솜방망이’ 논란 김영환 지사 “현금복지 후퇴 없다…양해구한다” 한화 창립 70주년, 김승연 회장 “어제를 경계하고 늘 새로워지자” 3년만의 제약 바이오 채용박람회 “프로농구 우승 후보는?” 감독에게 물었더니…SK·KT 막상막하 과학·미래 가치 담았다…UCLG 총회 ‘대전트랙’ 시작 정진석 ‘식민사관’ 발언 논란…유승민 “천박한 발언, 사퇴해야” 경찰 ‘제2의 n번방’ 18명 검거, 3명 구속 잇따르는 경기침체 경고…JP모건 CEO “미·세계 경제에 침체 올 것” 이재호 연수구청장, MZ세대와 소통…역사·문화 공유 최인호 “코레일·SR, 간부급 경조사비 5년간 14억 지급” 대구서 전국동시조합장선거 관련 첫 고발 전주, 후백제∼조선 유산 묶는 ‘왕의 궁원’ 프로젝트 추진 JP모건 CEO “S&amp;P 20% 더 빠질 수 있다” [3분 미국주식]</t>
+  </si>
+  <si>
+    <t>KT·제주도·제주관광공사, 디지코캠핑 인 제주 진행(IT/과학)-NSP통신 반복내용 건너뛰기(skip to main content) Korea Business News Agency - NSP통신 11th(2022.10.11 FILE)클럽NSPNSP구글뉴스NSP트위터NSP페이스북 NSP통신 뉴스전국NSP리포트소상공인포토/영상 메뉴검색기업중기/벤처/기타식음료/주류가전/기기전기/전자조선/기계철강/중공업화학/에너지/무역금융/증권금융증권보험/카드IT/과학IT일반/과학컴퓨팅/디바이스게임통신/모바일인터넷/콘텐츠부동산업계/정책분양정보매물/시세가구/자재/장비물류/유통물류/운송유통마켓/쇼핑몰항만해양장비기기자동차업계/정책부품/용품의학/건강병의원제약/바이오건강/웰빙/농수산의료기기/기술생활경제여행/레저패션/뷰티여성/유아교육정치/사회대통령실/중앙행정국회위/정당지자체/정당사회/단체연예/문화방송/연예영화문화/예술/책공연/전시인사/동정칼럼/논설기고/발언대기자수첩/한마디인터뷰탐방인사부고동정신상품/리뷰신상품체험리뷰해명/반론정치경제사회전국문화연예 기업중기/벤처/기타식음료/주류가전/기기전기/전자조선/기계철강/중공업화학/에너지/무역금융/증권금융증권보험/카드IT/과학IT일반/과학컴퓨팅/디바이스게임통신/모바일인터넷/콘텐츠부동산업계/정책분양정보매물/시세가구/자재/장비물류/유통물류/운송유통마켓/쇼핑몰항만해양장비기기자동차업계/정책부품/용품의학/건강병의원제약/바이오건강/웰빙/농수산의료기기/기술생활경제여행/레저패션/뷰티여성/유아교육정치/사회청와대/중앙행정국회위/정당지자체/정당사회/단체연예/문화방송/연예영화문화/예술/책공연/전시인사/동정칼럼/논설기고/발언대기자수첩/한마디인터뷰|탐방|인사부고|동정신상품/리뷰신상품체험리뷰해명/반론정치|경제|사회전국|문화|연예검색 search 검색 IT일반/과학컴퓨팅/디바이스게임통신/모바일인터넷/콘텐츠 ▶ NSP통신 인천, 경기북부 등 전국지사 모집   한국의 경제뉴스통신사 - NSP통신 인쇄 확대 축소KT·제주도·제주관광공사, 디지코캠핑 인 제주 진행2021-10-17 12:46, 이복현 기자 [XML:KR:1104:통신/모바일] #KT(030200) #제주도 #제주관광공사 #탄소없는섬제주 KT-제주관광공사, ‘탄소없는 섬 제주’ 실현 및 성공적 사업을 위한 업무협약식 진행 (사진 = KT) (서울=NSP통신) 이복현 기자 = KT(대표 구현모)가 ‘위드코로나’ 시대를 맞아 안전하고 새로운 여행 플랫폼 개발 협력을 위해 제주관광공사와 업무협약식을 맺고, 제주특별자치도‧제주관광공사와 공동으로 ‘탄소없는섬 제주 여행’ 활성화를 위한 ‘디지코캠핑 인 제주(DIGICO캠핑 in Jeju)’를 진행했다.‘탄소없는섬 제주 여행’이란 전 세계적으로 활발히 논의되고 있는 ‘탄소 중립(Net Zero)’ 실천을 통해 제주가 가진 천혜의 자연을 잘 보존할 수 있도록 여행하는 것. 이러한 여행 취지에 맞춰 15일부터 16일까지 김녕해수욕장야영장에서 친환경 전기차 차박 ‘디지코캠핑 인 제주’ 행사를 개최했다. DIGICO캠핑은 구현모 대표가 디지털 플랫폼 기업으로의 전환을 선언한 후 ‘ABC(AI‧빅데이터‧클라우드)’ 기술을 쉽게 전달하고 체험할 수 있도록 시도하는 다양한 커뮤니케이션 방식 중 하나다. 코로나19로 인해 단체 관광이나 대규모 체험 행사 등이 제한될 수 밖에 없는 여건을 고려해 비대면‧비접촉 방식으로 참가자 가족들만의 안전한 공간에서 차박 캠핑을 체험토록 했다. 캠핑장 입장부터 퇴장까지 모든 과정은 비대면으로 진행됐으며 캠핑에 필요한 편의용품, 식재료, 음료 등은 AI 서빙로봇이 직접 자율주행으로 전달해 참가자들 간의 접촉도 최소화했다.참가자들은 장작 화로 대신 전기차 배터리 전력을 이용한 저탄소 요리도 체험하고, 공항에서 캠핑장과 관광명소를 오가는 동안 전기차를 직접 운행하면서 ‘KT원내비’를 통해 제주도에 구축된 ‘스마트도로(C-ITS, 차세대 지능형 교통시스템)’를 체험했다. 또 KT의 동영상서비스 시즌(Seezn)의 AI 큐레이션을 활용해 영화와 드라마 등을 추천받아 관람하고 ‘블라이스’의 웹툰, 웹소설도 즐겼다. 저녁시간에는 ‘KT 비즈미트(BIZ MEET)’로 서울에서 진행된 ‘랜선쿠킹’ 클래스에 제주도에서 접속해 요리를 하며 캠핑을 즐겼다.KT와 제주관광공사는 업무협약을 통해 디지털 플랫폼 기술력과 통합 관광 마케팅의 융복합 롤모델을 창출하고 성공적 사업 협력을 통해 탄소없는 섬 제주를 함께 만들어 나가기로 했다. KT 미래가치추진실장 김형욱 부사장은 “제주특별자치도, 제주관광공사의 협력으로 탄소중립이라는 시대 흐름에 맞춰 공동으로 DIGICO캠핑 in Jeju 행사를 추진했다”면서 “위드 코로나 시대에 제주도와 DIGICO KT 는 각자가 보유한 장점을 활용해 새로운 캠핑, 여행에 대한 플랫폼을 만들어 나갈 것”이라고 말했다. NSP통신 이복현 기자 bhlee2016@nspna.com저작권자ⓒ 한국의 경제뉴스통신사 NSP통신·NSP TV. 무단전재-재배포 금지. 카카오톡 카카오스토리 밴드 페이스북 트위터 네이버블로그 프린트 AdvertizementNSP통신 200여 국가에 뉴스 공급NSP통신 전국지사모집NSP통신 증권사 HTS/MTS 뉴스 공급녹제거/부식방지/윤활 방청윤활제 RX3-360오늘의 주요뉴스 최근 10년새 여전사 PF대출 10배 증가…"부실 위험↑" 한은 "9월 경상수지 흑자 가능성↑…월별 변동성 클 것" 외환보유액 '금융위기 후 최대폭 감소'…197억달러↓ [NSP7컷]강석훈 산은 회장, 어쩌다 '하숙생' 됐나…부산 이전에 흔들리는 리더십 SK 울산 콤플렉스, 체질개선…2027년까지 약 5조원 투자해 넷제로 달성   KG이니시스, '온라인 다중사업자 분리승인' 솔루션 특허권 취득 네오위즈, 넷플릭스와 '고양이와 스프' 퍼블리싱 계약 체결 성리, 11일 미니앨범 '인생살이' 전격 발매...타이틀 곡 '가지 말아라' 포함 3곡 담겨 SK 테크 서밋 2022 참가 등록 시작 캠코, '희망리플레이 사회공헌 수기' 공모전 통해 생생한 이야기 담는다 테마기획 시승기 타보니 [타보니]르노 QM6 가솔린 모델, 승차감·파워·연비 좋은 ‘조용한 SUV’[타보니]DS 7 크로스백, 반응속도 빠르고 연비 좋은 ‘친환경 차’ NSP리포트더보기 최근 10년새 여전사 PF대출 10배 증가…“부실 위험↑” [NSP7컷]강석훈 산은 회장, 어쩌다 ‘하숙생’ 됐나…부산 이전에 흔들리는 리더십 파주시, 제25회 노인지회장기 게이트볼 대회 개최 케이뱅크, 아파트 신규 구입자금 대출 선봬…‘최저 연 3.18%’ 토스플레이스 오프라인 결제단말기 시범 서비스 시작 NSP통신 전국지사모집 more 한국의 경제뉴스통신사인 NSP통신이 1월 1일부터 전국 지역 지사를 모집합니다. 모집지역 인천, 경기동부, 경기북부, 대전, 광주, 강원, 충북, 전북, 울산, 경남, 경남서부, 제주 등 모집문의 [상세보기] 070-7599-1620 okyes@nspna.com, 지원서(hwp) 회사소개 회사연혁 저작권규약 광고 및 컨텐츠제휴문의 고충처리 채용안내 전국취재본부및지사 연락처 구글뉴스 트위터 페이스북 (07236) 서울시 영등포구 국회대로750 금산빌딩 3층 | TEL: (02)3272-2140~2 | FAX: (02)3272-2144 3F 750, Gukhoe-daero, Yeongdeungpo-gu, Seoul, 07236 Republic of Korea | TEL: +82-2-3272-2140~2 | FAX: +82-2-3272-2144 등록번호: 문화 나 00018호 | 등록일자: 2011.6. 29 | 발행인: 김정태 | 편집인: 류수운 | 고충처리인: 강은태 NSP통신·NSP TV의 모든 콘텐츠는 저작권법의 보호를 받는바, 무단 전재.복사.배포를 금합니다. ⓒ (주)NSP뉴스통신사. All rights reserved. ❝ NSP통신은 한국의 경제뉴스통신사입니다. 클린미디어운동-NSP통신은 보도자료 전송서비스를 하지 않습니다. ❞ Capture mode Home Top</t>
+  </si>
+  <si>
+    <t>[제주소식] 제주도, 2021년 하반기 우수관광사업체 공모 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 [제주소식] 제주도, 2021년 하반기 우수관광사업체 공모 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 [제주소식] 제주도, 2021년 하반기 우수관광사업체 공모 송고시간2021-10-05 11:36 요약 beta 닫기 제주도는 8일부터 27일까지 '2021년 하반기 우수관광사업체'를 공모한다. 이번 공모는 도내 우수 관광상품과 고품격 서비스를 두루 갖춘 관광사업체를 선발하기 위해 마련됐다. 신청 분야는 관광지·교통·숙박업·여행업·음식업 등 5개이며, 우수관광사업체로 지정돼 2년이 도래한 사업체는 신청을 통해 심사 후 재지정받을 수 있다. 요약 정보 인공지능이 자동으로 줄인 '세 줄 요약' 기술을 사용합니다. 전체 내용을 이해하기 위해서는 기사 본문과 함께 읽어야 합니다. 제공 = 연합뉴스&amp;줌인터넷® 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 변지철 기자 기자 페이지 (제주=연합뉴스) 제주도는 8일부터 27일까지 '2021년 하반기 우수관광사업체'를 공모한다. 제주도청 [제주도 제공. 재판매 및 DB 금지] 이번 공모는 도내 우수 관광상품과 고품격 서비스를 두루 갖춘 관광사업체를 선발하기 위해 마련됐다. 신청 대상은 도내에 사업장을 둔 업체 중 영업신고 후 1년 이상 지난 업체다. 광고 신청 분야는 관광지·교통·숙박업·여행업·음식업 등 5개이며, 우수관광사업체로 지정돼 2년이 도래한 사업체는 신청을 통해 심사 후 재지정받을 수 있다. 희망 사업체는 도청 누리집(www.jeju.go.kr) '입법·공고·고시' 게시판에서 우수관광사업체 지정 신청서 등을 내려받아 서류 작성 후 제주도관광협회(☎ 064-741-8752)에 신청하면 된다. 제주관광공사 친환경 제로 웨이스트 캠페인 전개 (제주=연합뉴스) 제주도와 제주관광공사는 친환경 여행문화 확산을 위해 도민, 관광객 참여형 '친환경 제로 웨이스트 캠페인'을 진행한다. 제로 웨이스트는 재활용 가능한 재료를 사용하거나 포장을 최소화해 쓰레기를 줄이는 친환경 캠페인이다. 이 캠페인은 공사에서 집중적으로 육성하고 있는 웰니스 마을 숙소를 대상으로 연말까지 관광객들이 친환경 제로 웨이스트 웰컴 키트를 무료로 체험하고 친환경 제로 웨이스트 운동 참여할 수 있도록 독려한다. 제로 웨이스트 웰컴 키트는 제주대학교 학생들이 참여한 캡스톤 디자인(Capstone design·산업현장에서 부딪칠 수 있는 문제들을 해결하는 능력을 길러주는 기획) 프로젝트에서 대상을 수상한 프로젝트 아이디어다. 도와 공사는 관광객들이 도내 숙박업소에서 숙박하며 친환경, 재사용 가능한 욕실용품을 체험하고 환경에 대한 관심을 높여, 제주관광을 즐길 때 일회용 쓰레기 문제에 대한 관심과 플라스틱 쓰레기 문제에 대한 심각성을 알릴 예정이다. 도와 공사는 도내 마을기업인 지구별가게와 함께 마을·웰니스 클러스터 지역인 한림, 안덕, 한경, 하효, 남원에 위치한 숙소들을 대상으로 친환경 제로 웨이스트 캠페인에 참여할 20여 개 참여 숙박업소를 오는 15일까지 모집한다. 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2021/10/05 11:36 송고 #제주 #우수관광사업체 #제주도 #제주관광공사 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 02:58 [영상] 푸틴, 미사일 보복 인정…바이든 "러시아, 비용 치르게 할 것" 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:46 [영상] 러, 우크라 전역에 대규모 보복 공격…70여명 사상·인프라 파괴 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 서울서 50대 권총에 맞아…"극단적 선택 추정" 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 출동 경찰관 가슴 밀치고 상의 흔든 30대, 테이저건 맞고 검거 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 선우은숙, 4살 연하 아나운서 유영재와 재혼 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 "유해를 그토록 찾길 원했는데"…6·25참전 故박태인 경사 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 뉴욕증시, CPI·실적 대기 속에 하락…나스닥 1%↓마감 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 두산과 작별한 김태형 감독, 5개 구단 제의 가능…태풍 되나(종합) 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 02:58 [영상] 푸틴, 미사일 보복 인정…바이든 "러시아, 비용 치르게 할 것" 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 뉴스 학업성취도 자율평가 대상 늘린다…2024년까지 초3∼고2로 확대 '화약고' 감사원 국감, '감사위원 배석' 놓고 오전 내내 파행 러 "서방의 우크라 개입 확대에 적절히 맞대응" 경고 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 광고 댓글 많은 뉴스 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 36 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 28 "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 댓글수 16 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 15 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도 관광약자접근성안내센터, 만족도조사 실시 &lt; 사회/교육 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-11 14:45 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 관광약자접근성안내센터, 만족도조사 실시 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회/교육 제주도 관광약자접근성안내센터, 만족도조사 실시 기자명 임아라 기자 입력 2021.10.18 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 300명 추첨 선물 증정 이벤트 제주도 관광약자접근성안내센터가 상시 운영하는 이지제주 홈페이지와 콜센터에 대한 만족도 조사 이벤트를 실시한다. 이번 이벤트는 관광약자에게 접근가능한 이용시설 및 콘텐츠를 제공함에 있어 관광약자 중심의 정보제공과 이용의 편의를 제공하기 위한 홈페이지 및 콜센터 개선을 위해 진행된다. 18일부터 25일까지 8일간 진행될 예정으로, 이지제주 홈페이지 이벤트 공지사항에서 설문지 링크에 접속해 설문에 참여하면 된다. 참여자 가운데 300명을 추첨해 소정의 선물을 제공하며 자세한 사항은 이지제주 홈페이지에서 확인이 가능하다. 한편, 센터에서는 최근 올레길 여행이 어려웠던 휠체어 여행가가 ‘이제제주TV’와 함께 접근 가능한 제주올레길 여행을 시작하는 내용으로 진행되는 콘텐츠 촬영을 함께할 올레길 콘텐츠 리포터를 모집 중이다. 임아라 기자 ara4908@daum.net 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 서귀포시, 사무관 8명 승진 임용 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 포토뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 인기뉴스 1 “눈을 의심했다” 휘발유·실내등유 가격 차 고작 100원 2 3년 만의 '노마스크' 탐라문화제 '팡파르' 3 ‘천년의 숨결’ 제61회 탐라문화제 막내렸다 4 오영훈 제주도지사 “분산에너지 특구 지정해 달라” 5 “내가 소개하는 작은도서관” 영상공모전 7작 시상 6 다혼디배움학교 현장 여론 존중돼야 7 3년 만에 열리는 제주광어 대축제 8 한국전력 전기요금 인상에 제주 양식업계 반발 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 경관 해치는 주범 물어보니… 도민 “고층 건축물” 관광객 “불법주차” | 세계일보 스포츠월드 세계비즈 세계로컬타임즈 종교신문 구독신청 mPaper RSS 로그인 회원가입 로그아웃 회원정보수정 회원탈퇴 세계일보 페이스북 네이버 포스트 트위터 유튜브 스포츠 선학평화상 환경 드론 전체메뉴 검색 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업·기업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 제주도 경관 해치는 주범 물어보니… 도민 “고층 건축물” 관광객 “불법주차” 입력 : 2021-10-18 01:05:00 수정 : 2021-10-17 18:25:48 인쇄 메일 글씨 크기 선택 가장 작은 크기 글자 한 단계 작은 크기 글자 기본 크기 글자 한 단계 큰 크기 글자 가장 큰 크기 글자 상징적 경관 ‘한라산·성산일출봉’ 제주도의 경관을 해치는 주범으로 제주도민은 고층건축물을 1순위로 꼽았지만 관광객은 무질서한 주차라고 지적해 대조를 보였다. 17일 제주연구원에 따르면 제주 경관에 부정적인 영향을 주는 요소로 도민의 19.6%는 고층건축물을 꼽은 반면 관광객의 25.8%는 무질서한 주차라고 응답했다. 제주연구원은 제주도 의뢰로 경관계획 재정비 용역을 수행하는 과정에서 지난 6월 20~26일 제주도민 500명과 관광객 300명을 대상으로 경관 의식조사를 했다. 도민은 제주 경관을 해치는 요인으로 고층건축물에 이어 무질서한 주차(18.0%), 송전탑(17.8%), 해안가 양식장(13.7%), 해안도로 주위 건물(11.1%) 등을 꼽았다. 관광객은 무질서한 주차 다음으로 고층건축물(12.4%), 송전탑(11.8%), 복잡한 도시구조(11.4%), 해안도로 주위 건축물(10.5%) 등을 꼽아 도민 인식과는 차이를 보였다. 제주를 대표하는 상징적인 경관에 대해서는 도민의 17.5%는 한라산을 꼽았고 그다음으로 성산일출봉(10.7%), 오름(8.2%), 올레길(7.0%) 등이었다. 관광객은 한라산(16.1%)과 성산일출봉(10.5%), 오름(6.5%), 제주의 숲(6.0%)과 해안도로(5.9%) 등의 순으로 답했다. 해안가 소규모 숙박·상업시설이 경관에 미치는 영향에 관해 묻자 도민의 45.1%는 제주와 어울리지 않는 건축방식으로 경관을 훼손한다고 답했고, 건축물로 인해 바다가 보이지 않는 조망점 훼손(38.8%), 원색의 색채가 경관을 훼손(5.7%)한다고 지적했다. 중산간 개발행위가 제주경관에 미치는 영향에 관한 질문에 도민의 37.8%는 나홀로식 개발로 경관 훼손, 31.7%는 주변과 어울리지 않는 모습 연출, 19.4%는 중산간 수평적 조망권 미확보를 꼽는 등 부정적인 인식이 매우 강했다. 주요 간선도로 골프장과 리조트, 숙박·상업시설 개발에 대한 찬반 문항에서도 도민 64.4%가 반대했다. 보통은 26.7%였고 찬성 응답은 8.9%에 불과했다. 관광객이 제주 경관에 만족하지 않는 이유로는 ‘주변 경관과 조화되지 않은 건축물 및 시설물’(69.2%), ‘제주만의 특별한 경관 모습이 보이지 않아서’(15.4%), ‘상징적인 요소가 없어서’(7.7%), ‘시가지 내 녹지공간이 부족해서’(7.7%) 등이 꼽혔다. 제주=임성준 기자 jun2580@segye.com [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지] 20211017507436 0101070100000 0 2021-10-18 1:5:0 2021-10-17 18:25:48 0 제주도 경관 해치는 주범 물어보니… 도민 “고층 건축물” 관광객 “불법주차” 세계일보 임성준 9a19e7e4-78a9-43d0-9d4a-245149669a84 jun2580@segye.com 오피니언 [설왕설래] 개운치 않은 불꽃축제 9일 오전 한 지인이 보낸 SNS(사회관계망서비스)에 입을 다물지 못했다. 형형색색 불꽃 사진에 탄성이 절로 나왔다. 실제 현장에서의 감동은 어떨까 싶었다. 전날 불꽃놀이를 보러 남산으로 향한다는 한 후배는 “세계일보가 명당자리인데 아이들 데리고 구경 가지 않느냐”고 묻기까지 했다. 회사에서는 이미 직원 가족들과 지인들을 위한 초청행사를 성대히 준비했다. [박완규칼럼] 위기관리 컨트롤타워 바로 세워야 윤석열정부가 출범한 지 5개월이 지났다. ‘국익과 실용’, ‘공정과 상식’을 국정운영 원칙으로 내세웠지만 나라를 어떻게 이끌어나갈지에 대한 구체적인 청사진을 내놓지 않았다. 국정이 나아갈 방향을 가늠하기 어려울 정도다. 이런 상황에서 외교안보와 경제 등에 어두운 그림자가 짙게 드리워져 있다. 국가적 위기감은 날로 커진다. 어느 틈에 위기관리가 최우선 국정 [기자가만난세상] 런던의 ‘인종적 중국인’ 필자는 1년간 영국 런던에서 대학원 과정을 마치고 최근 복귀했다. ‘민주주의에서의 정치 커뮤니케이션’ 수업의 공공외교 분야 세미나 중 중국 친구와 홍콩 친구 사이 벌어진 논쟁이 잊혀지지 않는다. 백신 개발국들이 타국에 백신을 공급·기부하면서 ‘연성권력(soft power)’을 구축하는 행위에 대한 토론을 하던 중이었다. 홍콩 친구가 라틴아메리카와 동남아 지 [김중백의자유롭게세상보기] 포용적 다양성이 필요한 우리 정치 필자가 속한 대학에서 최근 신임교수 환영 간담회가 열렸다. 신종 코로나바이러스 감염증(코로나19)이 전 세계를 강타한 이후 신임교수들은 최근까지 면접부터 오리엔테이션, 그리고 교수회의 등을 온라인으로만 진행해야 했다. 그러다 보니 새롭게 부임한 학교에 소속감도 느끼기 어려웠고 교수 간 지적 교류에 한계를 절감했다. 이런 아쉬움을 떨어내고자 새로 부임하는 교 HOT뉴스 1 "바위야 호박이야?" 1.1t 넘는 초대형 호박 수확 2 23층 지붕 위 기인…양복 입고 활보, 왜? 3 머스크, 440억달러에 트위터 인수…계약파기 철회 4 허리케인 '이언' 지나간 자리 처참…최소 108명 사망 5 에펠탑 아래 숲, 하마터면 사라질뻔∼ 포토 회사소개 지면광고 온라인광고 전광판 광고 사업제휴 독자인권위원회 및 고충처리 정정보도신청 개인정보취급방침 청소년보호정책 이용자약관 디지털뉴스이용규칙 고객센터 제호 : 세계일보 서울특별시 용산구 서빙고로 17 등록번호 : 서울, 아03959 등록일(발행일) : 2015년 11월 2일 발행인 : 정희택 편집인 : 황정미 전화번호 : 02-2000-1234 청소년보호 책임자 : 박광재 Copyright ⓒ 세계일보 All rights reserved. 문화사업 세계농업기술상 세계문학상 신춘문예 음악콩쿠르 글로벌미디어 Washington Times Tiempos Del Mundo 일본 세계일보</t>
+  </si>
+  <si>
+    <t>효성티앤씨, 제주도·제주관광공사와 '해변 친환경 프로젝트' 참여 - 위키리크스한국 × 전체기사 News Today 전체 정치 경제 월드 법조 사회 북한 취업뉴스 창업뉴스 통계&amp;법률 보도자료 미분류 라이프 전체 생활경제 컬처 산업·IT 전체 산업 IT 메디컬 UPDATED. 2022-10-11 14:50 (화) 로그인 회원가입 보도자료 WIKI Korea 모바일웹 WikiLeaks News 위키리크스 뉴스 wikileaks news WIKI 월드&amp; 이슈 정치 경제 산업·IT 산업 IT 사회 라이프 생활경제 컬처 WIKI 테마 WIKI 프리즘 비밀문서 테마기획 청와대-백악관 X파일 메디컬 기사검색 검색 이전 다음 효성티앤씨, 제주도·제주관광공사와 '해변 친환경 프로젝트' 참여 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME News Today 경제 효성티앤씨, 제주도·제주관광공사와 '해변 친환경 프로젝트' 참여 박영근 기자 승인 2021.10.08 14:04 수정 2021.10.08 14:04 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [출처=효성티앤씨] 효성티앤씨가 오는 10일부터 23일까지 제주특별자치도 주최, 제주관광공사가 주관하는 이호테우 해수욕장 친환경 팝업·스토어 전시인 '필터' 프로젝트에 참여한다고 8일 밝혔다. 회사에 따르면 필터 프로젝트는 여름기간 외에 방문이 뜸한 이호테우 지역의 해변가를 의미 있게 재탄생시켜 환경에 대한 중요성을 고취시키기 위해 기획됐다. 필터 팝업전시/스토어는 리젠제주로 만든 대형 현수막 등을 배경으로 사진을 찍을 수 있는 포토존과 재활용 소재로 만든 가방 등의 제품을 구매할 수 있는 팝업공간으로 나뉘어 운영된다. 가방은 나이키에서 기증받은 의류와 리젠으로 제작됐다. 이번 프로젝트에 사용된 리젠제주는 효성티앤씨가 제주특별자치도, 제주도개발공사와 함께 제주도에서 수거한 페트병으로 만든 리사이클 섬유 브랜드다. 효성티앤씨 김용섭 대표는 "친환경 섬유소재 선도기업으로서 다양한 환경문제에 지속적으로 관심을 갖고 친환경 제품 개발을 위해 노력하겠다"고 말했다. [위키리크스한국=박영근 기자]bokil8@wikileaks-kr.org 저작권자 © 위키리크스한국 무단전재 및 재배포 금지 박영근 기자 다른기사 보기 facebook 트위터 카카오톡 네이버블로그 유튜브 기자가 쓴 기사 70일 만에 키이우 미사일 공습…푸틴, 피의 보복 시작했다 70일 만에 키이우 미사일 공습…푸틴, 피의 보복 시작했다 [WIKI 돋보기] 아리송한 공기업의 중대재해처벌법, 책임은 누가 지나 [WIKI 돋보기] 아리송한 공기업의 중대재해처벌법, 책임은 누가 지나 "22조 7000억 태양광 펀드, 문제있다"…브레이크 건 금감원 "22조 7000억 태양광 펀드, 문제있다"…브레이크 건 금감원 [코로나19] 뚝 떨어진 신규 확진자…석 달 만에 1만 명 아래로 [코로나19] 뚝 떨어진 신규 확진자…석 달 만에 1만 명 아래로 푸틴發 핵공포, 한반도까지 덥쳤다…김정은 "대화 필요 없어" 푸틴發 핵공포, 한반도까지 덥쳤다…김정은 "대화 필요 없어" 타구 맞으면 응급실 직행인데…오렌지듄스CC, 안전 관리 도마 타구 맞으면 응급실 직행인데…오렌지듄스CC, 안전 관리 도마 인기기사 1[월드 프리즘] 일부 기독교도들을 평생 동안 괴롭히는 ‘휴거 불안’ 2[우크라 전쟁] 푸틴의 비밀 지하벙커... 핵전쟁 시 푸틴과 함께 들어갈 수 있는 명단은? 3[취재파일] 환영·우려 교차하는 삼성전자의 ARM 인수 4[우크라 전쟁] 푸틴이 실제 전술 핵무기를 사용한다면...전문가들 "일본에 투하된 원자폭탄과 맞먹을 파괴력" 5'빗썸 회장직' 논란 강모씨…빗썸 "명함엔 '빗썸라이브', 회사와 연관無" 6경력직인 줄 알았는데 신입·계약직…코스모신소재 채용 '꼼수' 논란 진실은? 7신한라이프, '생보 빅3' 모두 제치고 '순익 1위'...수익률 방어 성공 덕 8[조필현의 시선] ‘노바스크’ 벌레와 석연찮은 해명 9[인사] HL그룹 10인도네시아, 축구장 난동으로 127명 사망…인파에 대부분 압사 실시간기사 [제약·바이오 채용박람회] 92곳 기업 참가, 특성화대학원 등 참여 [제약·바이오 채용박람회] 92곳 기업 참가, 특성화대학원 등 참여 [ESG와 그린워싱①] '기후악당' 오명 쓴 현대제철, 2050 탄소중립 불가능할까 [ESG와 그린워싱①] '기후악당' 오명 쓴 현대제철, 2050 탄소중립 불가능할까 휴젤이 최대 ‘보툴리눔 톡신’ 美 시장에 도전하는 이유 휴젤이 최대 ‘보툴리눔 톡신’ 美 시장에 도전하는 이유 신문사소개 신문윤리강령 기사제보 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 마포구 마포대로 127, 1001호 (공덕동, 풍림빌딩) 대표전화 : 02-702-2677 팩스 : 02-702-1677 청소년보호책임자 : 소정원 법인명 : 위키리크스한국 주식회사 제호 : 위키리크스한국 등록번호 : 서울 아 04701 등록일 : 2013-07-18 발행일 : 2013-07-18 발행인 : 박정규 편집인 : 박찬흥 위키리크스한국은 자체 기사윤리 심의 전문위원제를 운영합니다. 기사윤리 심의 : 박지훈 변호사 위키리크스한국 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 위키리크스한국. All rights reserved. [위키리크스한국 보도원칙] 본 매체는 독자와 취재원 등 뉴스 이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알립니다. 고충처리 : 02-702-2677 | 메일 : laputa813@wikileaks-kr.org 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 23일 비치클린 ‘줍젠’ 프로젝트 실시 &lt; 경제/관광 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-11 14:45 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 23일 비치클린 ‘줍젠’ 프로젝트 실시 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제/관광 제주도관광협회, 23일 비치클린 ‘줍젠’ 프로젝트 실시 기자명 임아라 기자 입력 2021.10.15 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 친환경 여행 문화 선도 제주도관광협회가 친환경 여행문화를 선도하기 위해 해변과 바닷속 쓰레기를 줍는 ‘비치클린 줍젠’ 1회차 프로젝트를 23일 김녕 해수욕장 인근과 우도 수중에서 진행한다. ‘줍젠(JEN: Jeju Eco-friendly Network)’은 여행객과 도민이 함께 참여할 수 있는 환경정화 프로젝트로, 제주개발공사 및 도내 관광사업체(한라산소주, 김녕요트투어, 공룡랜드, 세리월드, 메종글래드제주, 방림원 등 20여곳)가 참여한다. 비치클린 활동은 거리두기 정책을 준수하기 위해 일시에 집결하지 않고 운영시간(오전 10시 ~ 오후 5시) 내에 개별적으로 진행된다. 참여자들은 김녕해변 한켠에 마련된 운영본부에서 쓰레기봉투와 집게를 받아 각자 환경정화 및 해안 정비를 시행하면 된다. 가장 많은 쓰레기를 주운 ‘환경왕’에게는 애플워치가 주어진다. 도자원봉사센터의 참여로 봉사 시간이 인정되며, 다양한 관광지 입장권과 할인혜택도 제공된다. 세부 내용 및 참여신청은 인스타그램 제주관광협회 또는 제주미니 채널에서 확인 가능하다. 임아라 기자 ara4908@daum.net 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 서귀포시, 사무관 8명 승진 임용 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 포토뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 인기뉴스 1 “눈을 의심했다” 휘발유·실내등유 가격 차 고작 100원 2 3년 만의 '노마스크' 탐라문화제 '팡파르' 3 ‘천년의 숨결’ 제61회 탐라문화제 막내렸다 4 오영훈 제주도지사 “분산에너지 특구 지정해 달라” 5 “내가 소개하는 작은도서관” 영상공모전 7작 시상 6 다혼디배움학교 현장 여론 존중돼야 7 3년 만에 열리는 제주광어 대축제 8 한국전력 전기요금 인상에 제주 양식업계 반발 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도의회,우수 문화도시, 관광도시 1번지 뒤에는 송악산 해안절벽 붕괴 8년째 공방 노끈으로 묶인 안전대응 ? 주메뉴 바로가기 본문 바로가기 2022.10.08 (토) 카카오채널 RSS 모바일보기 구름조금서울 11.2℃ 비제주 15.7℃ 흐림고산 15.7℃ 흐림성산 16.8℃ 비서귀포 16.2℃ 기상청 제공 기사제보 기사문의 회원가입 로그인 Korean English 中文 日本語 tiếng Việt Idioma español ру́сский язы́к 메뉴 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 기사검색 검색어를 입력해주세요 검색하기 검색창 열기 닫기 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 정치 홈 정치 제주도의회,우수 문화도시, 관광도시 1번지 뒤에는 송악산 해안절벽 붕괴 8년째 공방 노끈으로 묶인 안전대응 ? 서유주 기자 news@jejutwn.com 등록 2021.10.15 11:57:45 URL복사 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 [제주교통복지신문 서유주 기자] 제주도의회 문화관광체육위원회 오영희 의원(국민의 힘, 비례대표)은 제399회 제주도의회 임시회, 상임위 2차 행정사무감사에서 서귀포시장을 상대로“송악산 해안절벽이 붕괴되고 있지만 표지판 하나 없이 노끈으로 묶어 안전대응하는 시정, 도민과 관광객 안전에 방관하는 처사에 두고 볼 수 없다”며 강하게 비판 했다. 송악산은 2010년 안전진단용역을 통해 당시 송악산 절벽붕괴를 차단하기 위해 옹벽설치 등이 필요하다는 의견을 제시했으나 이루어지지 않았고, 2013년 처음 송악산 동북쪽 해안절벽 붕괴되면서 동굴진지 1번과 2번 입구가 훼손된 후 추가로 4차례 무너지면서 진지동굴 15개 가운데 ㄷ형과 직선형 동굴진지 등 5개가 매몰됐고, 동쪽 2곳은 함몰되면서 입구가 막혔습니다. 일부 동굴진지와 상부 산책로, 난간이 무너졌지만 송악산 진입 통제 조치만 취했다. 2021년 3월 해안절벽이 무너지면서 또다시 동굴진지 한 곳의 입구를 막아버렸고, 10월 초에는 해안절벽 진입로 옆 절벽이 무너졌고, 또 최근 해안절벽 곳곳 크고 작은 붕괴가 이어져 동굴진지 15개중 5개의 입구가 막힌 상태이다. 오영희 의원은 “이런 상황인데도 서귀포시 측은 송악산 절벽지역 일대가 문화재로 등록되어있어 세계자연유산본부에서 관리해야한다고 하고, 세계자연유산본부는 아직 문화재지정 전이라 우리 소관이 아니다 8년째 네탓 공방중이다. 어느 기관이 관리해야 하느냐”며 따져 물었다. 특히, 오영희의원은 “법정 문화도시, 관광도시1번지라고 자부하는데 실상은 송악산 해안절벽이 무너져도 관광객 안전에는 무신경한 핑퐁 논리만 펴는 이런 안일한 태도로 일관하고 있다”고 지적했다. 오영희 의원은 “관광도시 1번지라 자부하면서 이면에는 도민의 안전, 관광객 안전에 방관하는 처사, 표지판 하나 없이 노끈으로 묶긴 안전 대응이 최선이었는지 물었고, 송악산도 관광지라면서 안전에는 차선이란 없다. 관광도시 1번지와 우수 문화도시답게 솔선수범하는 서귀포시로 거듭나길 바란다”며 강하게 주문했다. 이에 대해 김태엽 서귀포시장은 “제주도민과 관광객들의 불편함에 대해 적극 기반시설을 정비하겠다는 답변과 함께 진지동굴 인근은 제주도와 검토 후 적극 추진하겠다”고 말했다. 서유주 기자 의 전체기사 보기 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 네이버카페 밴드 Copyright @2015 제주교통복지신문 Corp. All rights reserved. 랭킹뉴스 1 제주 서귀포 친환경 주거타운 ‘제주 레브카운티’, 대자연 풍경과 개발 수혜로 관심 2 제주 오션갤러리, 시행사 보유분 특별분양 3 연예인 입주로 화제…‘한일 베라체 인비디아’ 눈길 4 [TW포토] 2022 제주레저힐링축제 새별오름 공연 5 제주음협, 오는 22일 '창착오페라 「홍윤애」 하이라이트' 선보인다 6 제주시 동부보건소, 청소년 대상 코로나우울·스마트폰 중독 예방 홍보관 운영 7 제주 사회적기업 성장지원센터, 입주기업 설명회 및 간담회 성황리에 개최 8 서귀포시, 코로나19 취약(소농) 전업농가 영농경영비 신청기간 연장 9 제주시 서부보건소, 코로나 넘어 건강한 일상으로!『고고당 잡게 오몽하게 마씸』 10 서귀포시 장애인게이트볼 연맹, 전국장애인게이트볼대회 참가 실시간 뉴스 2022-10-07_FRI 창작오페라 「홍윤애」 제작발표회 19:15 제주특별자치도, 도심항공교통 상용화 시험대... 자율비행 드론 이용해 피자 배달 16:31 [TW포토] 제61회 탐라문화제 산지천 주변, 산지천갤러리 15:26 제주특별자치도의회, 참신한 정책 도민과 함께 만들어 갑니다 15:20 제주특별자치도, 40년만의 미국 인플레이션 살피는 까닭? 15:18 신문사소개 윤리강령 찾아오시는 길 개인정보처리방침 청소년보호정책 (책임자 : 이청) 이메일 무단수집거부 기사제보 문의하기 제주특별자치도 제주시 신대로7길 20, 301호 (연동, 새롬빌라) | 대표전화 : 010-8675-4517 발행인 : 이문호 | 편집인 : 이청 | 등록번호 : 제주, 아01068 | 등록일 : 2016.10.11 | 이메일 : news@jejutwn.com 제주교통복지신문의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2021 제주교통복지신문. All rights reserved. 최종편집일: 2022년 10월 08일 00시 01분 최상단으로</t>
+  </si>
+  <si>
+    <t>제주도-제주관광공사, 친환경 제로웨이스트 캠페인 진행 - 뉴스제주 × 전체기사 사회 전체 사건사고 일반 포토 날씨 뉴스제주초점 기업·인물탐방 행정 전체 제주도청 제주도의회 제주시청 서귀포시청 유관기관 읍면동 정치 전체 선거 정당 국회 의정활동 시민단체 교육 전체 교육청 교육행정 학교소식 경제 전체 제주도 제주시 서귀포시 도외 일반 문화 전체 제주도 제주시 서귀포시 도외 일반 관광 전체 제주도 제주시 서귀포시 도외 일반 동정 전체 도청 도의회 제주시 서귀포시 기타 연예 스포츠 동영상 오피니언 전체 기자수첩 칼럼 기고 시민기자 미디어부 뉴스제주TV 뉴스제주 시작페이지로 즐겨찾기 추가 한국어 영어 일본어 중국어 처음으로 로그인 회원가입 모바일웹 전체 사회 사건사고 포토 날씨 뉴스제주초점 기업·인물탐방 행정 제주도청 제주도의회 제주시청 서귀포시청 유관기관 사업소 읍면동 정치 선거 정당 국회 교육 교육청 교육행정 학교소식 경제 제주도 제주시 서귀포시 도외 문화 제주도 제주시 서귀포시 도외 스포츠 오피니언 기자수첩 칼럼 기고 시민기자 관광 제주도 제주시 서귀포시 도외 일반 동정 도청 도의회 제주시 서귀포시 기타 후원안내 날씨 기사검색 검색 최종편집 : 2022-10-11 14:56 (화) 이전 다음 제주도-제주관광공사, 친환경 제로웨이스트 캠페인 진행 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사회 제주도-제주관광공사, 친환경 제로웨이스트 캠페인 진행 박가영 기자 승인 2021.10.05 11:29 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 텔레그램 URL복사 × 캠페인 참여할 20여 개 숙박업소 오는 15일까지 모집 제주특별자치도와 제주관광공사(사장 고은숙)는 친환경 여행문화 확산을 위해 도민, 관광객 참여형 ‘친환경 제로웨이스트 캠페인’을 진행한다고 5일 밝혔다. 친환경 제로웨이스트 캠페인은 제주대학교 학생들이 참여한 캡스톤 디자인(Capstone design :  산업현장에서 부딪칠수 있는 문제들을 해결하는 능력을 길러주는 기획, 설계 제작 전 과정을 경험하는 교육과정) 프로젝트에서 대상을 수상한 제로웨이스트 키트 프로젝트 아이디어에 착안했다. 공사에서 집중 육성하고 있는 마을 웰니스 클러스터(Cluster : 비슷한 업종 기업·기관들이 모여있는 특정 지역) 내 숙소를 대상으로 연말까지 관광객들이 친환경 제로웨이스트 웰컴키트를 무료로 체험하고 친환경 제로웨이스트 운동 참여 할 수 있도록 독려하는 캠페인이다. 이를 통해 도와 공사는 관광객들이 도내 숙박업소에서 숙박을 하며 친환경, 재사용 가능한 욕실용품을 체험하고 환경에 대한 관심을 높여, 제주관광을 즐길 때 일회용 쓰레기 문제에 대한 관심과 플라스틱 쓰레기 문제에 대한 심각성을 알릴 예정이다. 이를 위해 도내 마을기업인 지구별가게와 함께 마을·웰니스 클러스터 지역인 한림, 안덕, 한경, 하효, 남원에 위치한 숙소들을 대상으로 친환경 제로웨이스트 캠페인에 참여할 20여 개 참여 숙박업소를 오는 15일까지 모집한다. 또한 숙박업소가 모집이 완료가 되면 숙박업소를 이용하는 관광객들에게 친환경 제로웨이스트 키트를 무료로 체험할 수 있도록 제공하고, 숙박업소와 연계한 친환경 제로웨이스트 마을 투어 콘텐츠도 만들어 홍보할 계획이다. 이와 함께 관광객 뿐만 아니라 제주도민이 함께 일회용품과 플라스틱 쓰레기를 줄이고 깨끗한 청정 제주를 만드는데 힘을 보탤 수 있도록 캠페인을 추진해 나갈 방침이다. Tag #제주관광공사 #친환경 제로웨이스트 캠페인 #숙박업소 저작권자 © 뉴스제주 무단전재 및 재배포 금지 박가영 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 자동등록방지 내용 0 / 400 등록 댓글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 많이 본 뉴스 뉴스 댓글 1[강병삼 시장 축사] 뉴스제주 창간 16주년 2[김광수 교육감 축사] 뉴스제주 창간 16주년 3[오영훈 지사 축사] 뉴스제주 창간 16주년 4[김한규 의원 축사] 뉴스제주 창간 16주년 5[이종우 시장 축사] 뉴스제주 창간 16주년 1수상자 본인 입니다. 확인 되지 않은 사실을 기반으로 허유사실을 공론화하지 않으시길 바랍니다. 2나 조만간 자살 할 것 같아 3ㅎ ㅎ ㅎ 4비슷비슷헌 사름덜 보염싱게~ 자기들부터 깨끗허게 살주게 5원희룡... 최신기사 효돈동지역사회보장협의체, 사랑의 두드림 밑반찬 나눔사업 진행 효돈동지역사회보장협의체, 사랑의 두드림 밑반찬 나눔사업 진행 안덕면주민자치센터 특화프로그램‘ᄀᆞ치 맹그는 울 할망·하르방 인생 여행기’ 프로그램 운영 안덕면주민자치센터 특화프로그램‘ᄀᆞ치 맹그는 울 할망·하르방 인생 여행기’ 프로그램 운영 남원읍, 불법광고물 정비 실시 남원읍, 불법광고물 정비 실시 용담1동지역사회보장협의체·용담1동 동행동락 행사 추진 용담1동지역사회보장협의체·용담1동 동행동락 행사 추진 조천읍장, 지방세 체납액 징수 철저 당부 조천읍장, 지방세 체납액 징수 철저 당부 구좌읍 민속보존회, 제61회 탐라문화제 민속예술부문 우수상 수상 구좌읍 민속보존회, 제61회 탐라문화제 민속예술부문 우수상 수상 삼양동 새마을지도자, 원당봉 산책로 환경정비 실시 삼양동 새마을지도자, 원당봉 산책로 환경정비 실시 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 첨단로8길 34, 1층 대표전화 : 064-747-1188 팩스 : 064-745-4569 청소년보호책임자 : 남우엽 제호 : 뉴스제주 등록번호 : 제주 아 01007 등록일 : 2006-10-09 발행인 : 남우엽 편집인 : 남우엽 뉴스제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 뉴스제주. All rights reserved. mail to newsjeju@hanmail.net 위로</t>
+  </si>
+  <si>
+    <t>제주도의회 문화관광체육위원회, 행정사무감사에 앞서 문화현장 점검 주메뉴 바로가기 본문 바로가기 2022.10.09 (일) 카카오채널 RSS 모바일보기 비서울 13.8℃ 흐림제주 19.6℃ 흐림고산 18.5℃ 흐림성산 19.0℃ 흐림서귀포 18.7℃ 기상청 제공 기사제보 기사문의 회원가입 로그인 Korean English 中文 日本語 tiếng Việt Idioma español ру́сский язы́к 메뉴 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 기사검색 검색어를 입력해주세요 검색하기 검색창 열기 닫기 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 정치 홈 정치 제주도의회 문화관광체육위원회, 행정사무감사에 앞서 문화현장 점검 서유주 기자 news@jejutwn.com 등록 2021.10.08 13:08:55 URL복사 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 설문대할망 전시관 및 제주성읍마을 현장방문 [제주교통복지신문 서유주 기자] 제주도의회 문화관광체육위원회는 행정사무감사에 앞서 8일 돌문화공원 설문대할망 전시관과 제주성읍마을을 방문하여 현장을 둘러보고, 추진되고 있는 사업에 대해 의견청취 등 의정활동을 펼친다. 돌문화공원 설문대할망 전시관은 2012년부터 2020년까지 9년간, 821억원 투자에도 불구하고 전시콘텐츠 빈약, 시공의 문제점, 학예인력 부족으로 인한 운영의 문제점 등이 제기됨에 따라 현장을 직접 둘러보고 개선대책을 논의 할 예정이다. 한편, 국가민속문화재 제188호로 지정된 제주 성읍마을이 지난 8월 호우로 성곽 3개소가 붕괴됨에 따라 이에 따른 조치사항과 향후계획에 대해 현장브리핑을 받는다. 또한 성읍1리 마을회 지역주민의 애로사항도 청취할 계획이다. 안창남 위원장은 2021년 행정사무감사에 앞서 문화현장 점검에 나서면서 “설문대할망전시관은 제주의 생성과 문화의 뿌리가 되어 온 돌문화, 설문대할망신화, 민속문화가 집대성 되어 있는 공간인 만큼 세계적인 명품 공원으로 조성되도록 심혈을 기울여야 할 것이며, 제주성읍마을은 국가민속문화재로 지정 관리되고 있는 만큼 성곽 붕괴 부분은 긴급히 보수 시행하여 문화재 보호에 만전을 기해야 할 것”이라고 말했다. 또한, “제주 곳곳에 분포되어 있는 유·무형의 문화자원들을 행정과 민간이 협업하여 문화가치를 극대화 해 나갈수 있는 방법을 모색해 나감으로써 제주 고유의 전통문화와 민속예술을 지속적으로 계승 발전시켜 나가야 할 것이다” 라고 거듭 강조했다. 서유주 기자 의 전체기사 보기 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 네이버카페 밴드 Copyright @2015 제주교통복지신문 Corp. All rights reserved. 랭킹뉴스 1 제주 서귀포 친환경 주거타운 ‘제주 레브카운티’, 대자연 풍경과 개발 수혜로 관심 2 제주 오션갤러리, 시행사 보유분 특별분양 3 연예인 입주로 화제…‘한일 베라체 인비디아’ 눈길 4 제주시 동부보건소, 청소년 대상 코로나우울·스마트폰 중독 예방 홍보관 운영 5 제주음협, 오는 22일 '창착오페라 「홍윤애」 하이라이트' 선보인다 6 서귀포시, 코로나19 취약(소농) 전업농가 영농경영비 신청기간 연장 7 제주시 서부보건소, 코로나 넘어 건강한 일상으로!『고고당 잡게 오몽하게 마씸』 8 제주 사회적기업 성장지원센터, 입주기업 설명회 및 간담회 성황리에 개최 9 서귀포시, 동절기 코로나19 추가접종 10월 11일부터 참여 가능 10 서귀포시, 2023년 FTA기금 감귤생산시설 현대화사업 신청·접수 실시간 뉴스 2022-10-07_FRI 창작오페라 「홍윤애」 제작발표회 19:15 제주특별자치도, 도심항공교통 상용화 시험대... 자율비행 드론 이용해 피자 배달 16:31 [TW포토] 제61회 탐라문화제 산지천 주변, 산지천갤러리 15:26 제주특별자치도의회, 참신한 정책 도민과 함께 만들어 갑니다 15:20 제주특별자치도, 40년만의 미국 인플레이션 살피는 까닭? 15:18 신문사소개 윤리강령 찾아오시는 길 개인정보처리방침 청소년보호정책 (책임자 : 이청) 이메일 무단수집거부 기사제보 문의하기 제주특별자치도 제주시 신대로7길 20, 301호 (연동, 새롬빌라) | 대표전화 : 010-8675-4517 발행인 : 이문호 | 편집인 : 이청 | 등록번호 : 제주, 아01068 | 등록일 : 2016.10.11 | 이메일 : news@jejutwn.com 제주교통복지신문의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2021 제주교통복지신문. All rights reserved. 최종편집일: 2022년 10월 09일 11시 44분 최상단으로</t>
+  </si>
+  <si>
+    <t>제주도, 2021 하반기 우수관광사업체 공모 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:58 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 2021 하반기 우수관광사업체 공모 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, 2021 하반기 우수관광사업체 공모 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2021.10.05 14:36 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 오는 8일부터 27일까지 ‘2021년 하반기 우수관광사업체’를 공모한다고 밝혔다. 이번 공모는 도내 우수 관광상품과 고품격 서비스를 두루 갖춘 관광사업체를 선발하기 위해 마련됐다. 신청 대상은 도내에 사업장(주소)를 둔 업체 중 영업신고(리모델링) 후 1년 이상 경과한 업체다. 신청 분야는 관광지·교통·숙박업·여행업·음식업 등 5개이며, 우수관광사업체로 지정돼 2년이 도래한 사업체는 신청을 통해 심사 후 재지정 받을 수 있다. 제주도는 관광사업체 신청 서류 등 자격요건 심사 후 전문가들로 구성된 평가위원들의 현장평가와 우수관광사업체 평정위원회  심의를 거쳐 대상업체를 선정할 방침이다. 평가는 △사업체 시설 및 환경 △서비스 △요금 △안전·위생관리 △지역 사회 공헌도 등이며, 분야별 평가표에 따라 이뤄진다. 종합점수가 기준 점수(90점)에 충족된 경우 평정위원회 심의를 거쳐 최종 선정된다. 우수관광사업체 지정 기간은 2년(2022년 1월 1~2023년 12월 31일)이며, 우수관광사업체 지정서 및 인증패가 주어진다. 이와 함께 제주도 및 유관기관 홈페이지 게재, 사회 관계망 서비스(SNS) 홍보(블로그, 인스타그램, 유튜브 등), 리플릿, 지도 제작 및 배포를 통한 홍보 인센티브 혜택과 함께 홍보 지원금 80만 원이 지급된다. 또한, 지정 우수관광사업체 고객만족도 조사 등 중간점검을 통해 컨설팅 및 종사자 대상 서비스 교육도 지원된다. 희망 사업체는 도청 홈페이지(www.jeju.go.kr) ‘입법·공고·고시’ 게시판에서 우수관광사업체 지정 신청서 등을 내려 받아 서류 작성 후 제주도관광협회(064-741-8752)에 신청하면 된다. 자세한 공모 내용은 도청 홈페이지에서 확인할 수 있다. 김승배 제주도 관광국장은 “우수관광사업체 선정을 통해 제주관광이 질적으로 성장할 수 있는 기반을 마련할 것”이라며 “도내 관광사업체의 많은 참여와 관심을 기대한다”고 말했다. 한편, 10월 현재 우수관광사업체는 68곳이다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 6 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 2021년 하반기 우수관광사업체 공모...27일까지 접수 - 투어코리아 - No.1 여행·축제 뉴스 × 전체기사 이슈 전체 정책 지역 사회 피플 여행 전체 국내여행 해외여행 맛집멋집 리조트 펜션 휴양림 호텔레스토랑 Green Tour 여행사 축제 전체 국내인기축제 세계축제 라이프 전체 팁뉴스 문화 패션아웃도어 레포츠 의료관광 관광청 경제 최종편집 : 2022-10-11 14:34 (화) 처음으로 로그인 회원가입 facebook twitter rss post kakaoch instagram in-naver 전체기사 이슈 정책 지역 사회 피플 여행 국내여행 해외여행 맛집멋집 리조트 펜션 휴양림 호텔레스토랑 Green Tour 여행사 축제 국내인기축제 세계축제 라이프 팁뉴스 문화 패션아웃도어 레포츠 의료관광 관광청 경제 기사검색 검색 실시간 경주시, 총 상금 1600만원 내건 ‘2022 경주 숏폼 영상 공모전’ 실시 마리아나관광청, 인플루언서·크리에이터' 여행경비 지원 프로그램 발표 태국 디렉터 &amp; 아티스트 Mr. ROM, 서울에서 첫 개인 사진전 ‘REBORN’ 진행 담양 죽녹원, 내비게이션 검색량 1위..전남 대표 관광지 ‘입증’ 감빛 곱게 물든 전북 '단풍 천리길' 11개 코스 걸으며 힐링 대전 0시 뮤직페스티벌, 관광객 등 50만 명 찾아..내년 축제 기대감 높여 도시민박업·한옥체험업 창업의 모든 것 '서울스테이 사업설명회' 18일 개최 대한민국 특별귀화자 1호 인요한, 2023순천만국제정원박람회 홍보대사 위촉 고양시, CJ라이브시티 조기 완공 추진 '민관 TF팀' 첫 회의 개최 풍속·해학 등 김홍도 예술혼 재현 '안산 김홍도축제' 4년만에 오프라인 개최 3년만에 만나는' 서울억새축제'서 은빛 감성 가을 낭만 즐겨요! 고창문화관광재단, 고창형 플리마켓 '고창한장 단풍마켓' 개최 핫뉴스 철원군, 고석정꽃밭·주상절리길 인기에 '천만 관광객 시대' 눈앞 "거 참 재밌네!"...오감이 흥겨운 안동국제탈춤페스티벌 그곳에 가면...해양도시 포항여행 매력에 쏙 빠진다! 올 가을, 우리는 ‘백제문화제 판타지아’에 빠진다 공주 금강신관공원 코스모스 활짝 감성 채워주는 공주 힐링스폿! "가을여행 멀리 가지마세요" 서울 도심 속 공원으로 가족소풍을! [포토] 핑크뮬리 유혹하는 함평 석두마을 올가을, ‘대전효문화뿌리축제’에서 뿌리 찾는 즐거움에 빠져볼까! 서울여행 인기...일본 최대 관광박람회서 서울홍보관 북적북적 '수트라하버 리조트', MZ세대 겨냥 해외 골프패키지 홈쇼핑 판매 10월, 축제 분위기로 핫 한 '여수' 여행 재미에 빠져 봐~ 이전 다음 제주도, 2021년 하반기 우수관광사업체 공모...27일까지 접수 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 상태바 HOME 이슈 지역 제주도, 2021년 하반기 우수관광사업체 공모...27일까지 접수 김지혜 기자 승인 2021.10.05 12:10 댓글 0 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 URL복사 × 제주도청 제주도는 '2021년 하반기 우수관광사업체'를 공모한다. 이번 공모는 도내 우수 관광상품과 고품격 서비스를 두루 갖춘 관광사업체를 선발하기 위해 마련됐다. 신청 분야는 관광지·교통·숙박업·여행업·음식업 등 5개이며, 신청 대상은 도내에 사업장을 둔 업체 중 영업신고 후 1년 이상 지난 업체로, 8일부터 27일까지 접수한다. 우수관광사업체로 지정돼 2년이 되는 사업체는 신청을 통해 심사 후 재지정받을 수 있다. 자세한 내용은 제주도관광협회로 문의하면 된다. 저작권자 © 투어코리아 - No.1 여행·축제 뉴스 무단전재 및 재배포 금지 김지혜 기자 다른기사 보기 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 당신만 안 본 뉴스 철원군, 고석정꽃밭·주상절리길 인기에 '천만 관광객 시대' 눈앞 "거 참 재밌네!"...오감이 흥겨운 안동국제탈춤페스티벌 그곳에 가면...해양도시 포항여행 매력에 쏙 빠진다! 올 가을, 우리는 ‘백제문화제 판타지아’에 빠진다 공주 금강신관공원 코스모스 활짝 감성 채워주는 공주 힐링스폿! "가을여행 멀리 가지마세요" 서울 도심 속 공원으로 가족소풍을! 철원군, 고석정꽃밭·주상절리길 인기에 '천만 관광객 시대' 눈앞 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 에디터 초이스 TRIP 신비로운 남원 서어나무숲에서 즐기는 가을 향기 BIZ 반짝이는 내 차를 위해, 세차 산업의 역사 FOOD 절대 갈변하지 않는 밤 보관 특급비법 CULTURE '월수금화목토' 아직은 질리지 않는 박민영표 로맨틱 코미디 LIFE 동요대회 입상한 노노카짱의 근황 투어코리아 Cover 145호 2022-10-01 구독신청 지난호보기 기사제보 광고문의 기자회원 신청 투어코리아 SNS 주요기사 경주시, 총 상금 1600만원 내건 ‘2022 경주 숏폼 영상 공모전’ 실시 마리아나관광청, 인플루언서·크리에이터' 여행경비 지원 프로그램 발표 태국 디렉터 &amp; 아티스트 Mr. ROM, 서울에서 첫 개인 사진전 ‘REBORN’ 진행 담양 죽녹원, 내비게이션 검색량 1위..전남 대표 관광지 ‘입증’ 감빛 곱게 물든 전북 '단풍 천리길' 11개 코스 걸으며 힐링 대전 0시 뮤직페스티벌, 관광객 등 50만 명 찾아..내년 축제 기대감 높여 투어코리아가 만난사람 [인터뷰] 박일호 밀양시장 “관광객이 감동하는 밀양 만들기 위해 고민” 국내축제 3년만에 만나는' 서울억새축제'서 은빛 감성 가을 낭만 즐겨요! 세계축제 진정한 미식가 축제 ‘싱가포르 푸드 페스티벌’ 팬데믹 이후 첫 대면 개최 국내여행 그곳에 가면...해양도시 포항여행 매력에 쏙 빠진다! 테마여행 올가을, 댕댕이와 크루즈 여행떠나요! 아시아 인스타그램 ‘좋아요’ 부르는 '힙한 홍콩 카페' 어디? 유럽 가을 낭만 더하는 이스탄불의 거리 탑3 미국·캐나다·중남미 배우 이기우 추천 캘리포니아 펫 프렌들리 여행지, '아빌라 비치' 중동·아프리카 로맨스 인 두바이? 사막에서 별빛 샤워, 관람차에서 야경 만끽! 오세아니아 '럭셔리 항공 투어'로 호주의 대자연 색다르게 즐겨봐! 전문가칼럼 [119기고] 공동주택 화재 안전은 피난설비 올바른 숙지부터 시작 최신뉴스 경주시, 총 상금 1600만원 내건 ‘2022 경주 숏폼 영상 공모전’ 실시 마리아나관광청, 인플루언서·크리에이터' 여행경비 지원 프로그램 발표 태국 디렉터 &amp; 아티스트 Mr. ROM, 서울에서 첫 개인 사진전 ‘REBORN’ 진행 담양 죽녹원, 내비게이션 검색량 1위..전남 대표 관광지 ‘입증’ 감빛 곱게 물든 전북 '단풍 천리길' 11개 코스 걸으며 힐링 포토뉴스 경주시, 총 상금 1600만원 내건 ‘2022 경주 숏폼 영상 공모전’ 실시 마리아나관광청, 인플루언서·크리에이터' 여행경비 지원 프로그램 발표 태국 디렉터 &amp; 아티스트 Mr. ROM, 서울에서 첫 개인 사진전 ‘REBORN’ 진행 담양 죽녹원, 내비게이션 검색량 1위..전남 대표 관광지 ‘입증’ 인기뉴스 1 철원군, 고석정꽃밭·주상절리길 인기에 '천만 관광객 시대' 눈앞 2 "거 참 재밌네!"...오감이 흥겨운 안동국제탈춤페스티벌 3 그곳에 가면...해양도시 포항여행 매력에 쏙 빠진다! 4 올 가을, 우리는 ‘백제문화제 판타지아’에 빠진다 5 공주 금강신관공원 코스모스 활짝 6 감성 채워주는 공주 힐링스폿! 7 "가을여행 멀리 가지마세요" 서울 도심 속 공원으로 가족소풍을! 8 [포토] 핑크뮬리 유혹하는 함평 석두마을 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 법인명 : (주)태건미디어 사업자 등록번호 : 105-87-36240 서울특별시 종로구 송월길 136 301호 발행·편집인 : 유경훈 청소년보호책임자 : 조성란 대표전화 : 02-326-0002 이메일 : webmaster@tournews21.com 투어코리아 정기간행물 등록번호 : 종로 라 00420 등록일 : 2009-12-14 투어코리아뉴스 인터넷신문 등록번호 : 서울 아 03491 등록일 : 2014-12-18 발행일 : 2014-12-18 투어코리아 - No.1 여행·축제 뉴스 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 투어코리아 - No.1 여행·축제 뉴스. All rights reserved. mail to webmaster@tournews21.com 위로</t>
+  </si>
+  <si>
+    <t>제주도-제주관광공사, 해양쓰레기 팝업 전시 '필터' 10일 개막 - 전국매일신문 - 전국의 생생한 뉴스를 ‘한눈에’ × 전체기사 전국은지금 전체 인물열전 핫플레이스 페스티벌 파워인터뷰 전국 전체 서울 경기 인천 대전충청 세종 부산경남 대구경북 호남 강원 제주 정치 전체 정치일반 지방정치 국민의선택 경제 전체 경제일반 산업·기업 건설·부동산 금융·유통 농림·수산 사회 전체 사회일반 사건·사고 현장포커스 꿀팁모음ZIP 교육 전체 교육일반 교육행정 문화 전체 생활·문화 스포츠 방송·연예 독자와 함께 詩(시) 읽기 나랏말싸미 사투리뉴스 수어, 함께 배워요 점자, 손끝으로 읽는 세상 국제 ESG・CSR 연구소 전체 ESG경영 CSR가치실천 ESG・CSR 칼럼 오피니언 전체 서길원 대기자 세상읽기 김연식의 생각이 있는 아침 한상규의 알기쉬운 회의진행 방법 칼럼 전문가 칼럼 전매만평 사설 기고 독자투고 피플 전체 人사이드 새인물 인사 부음 동정 전국매일신문배 코리아오픈 하프파이프대회 기획특집 전체 기획특집 기획보도 포토·영상 전체 전매VIEW 전매TV 그래픽뉴스 종합 전체 종합 2020 신년사 로그인 회원가입 모바일웹 지면보기 2022-10-11 14:40 (화) NOW 서울서 권총 맞아 쓰러진 50대…"극단적 선택 추정" 시민단체 "정부, 위기때마다 여가부 폐지 내세워…즉각 철회해야" 물품대금 5억 빼돌린 안성 지역농협 직원 자수 신규확진 1만5476명 '감소세' 지속 전국 흐리다 차차 맑아져…아침 최저 4~13도 정치 정치일반 지방정치 국민의선택 경제 경제일반 산업·기업 건설·부동산 금융·유통 농림·수산 사회 사회일반 사건·사고 현장포커스 꿀팁모음ZIP 전국 서울 경기 인천 대전충청 세종 부산경남 대구경북 호남 강원 제주 교육 교육일반 교육행정 문화 생활·문화 스포츠 방송·연예 독자와 함께 詩(시) 읽기 나랏말싸미 사투리뉴스 수어, 함께 배워요 점자, 손끝으로 읽는 세상 오피니언 서길원 대기자세상읽기 김연식의생각이 있는 아침 한상규의 알기쉬운회의진행 방법 칼럼 전문가 칼럼 전매만평 사설 기고 독자투고 피플 人사이드 새인물 인사 부음 동정 기획특집 기획특집 기획보도 전국은지금 인물열전 핫플레이스 페스티벌 파워인터뷰 전매TV 기사검색 전국은지금 인물열전 핫플레이스 페스티벌 파워인터뷰 전국 서울 경기 인천 대전충청 세종 부산경남 대구경북 호남 강원 제주 정치 정치일반 지방정치 국민의선택 경제 경제일반 산업·기업 건설·부동산 금융·유통 농림·수산 사회 사회일반 사건·사고 현장포커스 꿀팁모음ZIP 교육 교육일반 교육행정 문화 생활·문화 스포츠 방송·연예 독자와 함께 詩(시) 읽기 나랏말싸미 사투리뉴스 수어, 함께 배워요 점자, 손끝으로 읽는 세상 국제 ESG・CSR 연구소 ESG경영 CSR가치실천 ESG・CSR 칼럼 오피니언 서길원 대기자 세상읽기 김연식의 생각이 있는 아침 한상규의 알기쉬운 회의진행 방법 칼럼 전문가 칼럼 전매만평 사설 기고 독자투고 피플 人사이드 새인물 인사 부음 동정 전국매일신문배 코리아오픈 하프파이프대회 기획특집 기획특집 기획보도 포토·영상 전매VIEW 전매TV 그래픽뉴스 종합 종합 2020 신년사 전국매일신문지면보기 지방시대지면보기 전체기사 서울 경기 인천 대전충청 세종 부산경남 대구경북 호남 강원 제주 이전 다음 제주도-제주관광공사, 해양쓰레기 팝업 전시 '필터' 10일 개막 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 상태바 HOME 전국 제주 제주도-제주관광공사, 해양쓰레기 팝업 전시 '필터' 10일 개막 제주취재본부/ 양동익기자 승인 2021.10.10 10:00 댓글 0 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 URL복사 × 23일까지 이호테우해수욕장서 진행 해양쓰레기 팝업전시 '필터'. [제주관광공사 제공] 해양쓰레기 팝업 전시 '필터(filter-必터)'가 10일부터 제주에서 열린다. 제주도와 제주관광공사는 이호테우해수욕장 종합상황실에서 10일부터 23일까지 2주간 진행한다고 밝혔다. 이번 전시는 제주 바다는 우리의 놀이'터'이자 반드시 지켜야 할 '터'이다. 물을 정수(정화)하는 필터처럼, 사진 찍을 때 예쁘게 보정해주는 필터처럼, '必터'를 통해 오염된 바다를 다시 아름답게 만들자라는 취지로 시작됐다. '필터'(filter-必터)는 이호동주민센터와 이호동주민자치위원회와의 협업을 통해 해양쓰레기를 활용해 이호테우해수욕장의 문화콘텐츠로 개발하고 코로나19로 침체한 이호동 지역을 활성화하는 프로젝트이자 제주 바다 보호를 위해 진행되는 캠페인성 전시행사다. 실제 바다에서 수거한 해양쓰레기를 활용해 오염된 바다부터 점점 정화되는 모습의 바다를 연출한 스토리텔링 전시를 선보인다. 이외에도 건물 복도와 테라스, 발코니에는 제주 바다에서 수거한 폐어망, 폐그물, 폐플라스틱, 폐비닐을 활용해 제작된 포토존이 준비돼 있다. 방문객들을 위한 업사이클링(Up-cycling·재활용) 체험공간도 마련돼 있다. 전시 공간 내에 이뤄지는 팝업스토어에서는 나이키의 재고 의류를 업사이클링한 전시와 굿즈를 선보인다. 굿즈는 해양 정화 및 지역 상권 활성화 취지에 맞춰 이호테우해수욕장 쓰레기를 수거하거나 이호동 상권을 이용한 자에 한해 무료 제공된다. 한편 이번 전시는 2주간 오전 11시부터 오후 7시까지 운영될 예정이며, 코로나19 방역지침에 따라 예약제로 운영된다. [전국매일신문] 제주취재본부/ 양동익기자 waterwrap@jeonmae.co.kr 저작권자 © 전국매일신문 - 전국의 생생한 뉴스를 ‘한눈에’ 무단전재 및 재배포 금지 제주취재본부/ 양동익기자 다른기사 보기 당신만 안 본 뉴스 박민영 측 "강종현과 결별..금전지원 없었다" 4~7일 오전 8시 4호선 전장연 시위…열차운행 지연 예정 "정부, HMM 민영화 2025년 말까지 완료" '학폭 의혹' 박혜수, 2년 만에 부산국제영화제 참석 '송가인 전국투어 콘서트' 8일 목포 공연 개최 정당 지지율, 민주 46.1%・국민의힘 35.3% 이수희 강동구청장, 원희룡 국토부장관 만나 GTX-D 노선 유치 협의 박민영 측 "강종현과 결별..금전지원 없었다" 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 주요기사 무릎인공관절 수술, 연골 손상 심각하다면 고려 성일종 의원 “서산·태안 행정안전부 특별교부세 총 55억 확보” "한컴 아로와나 코인 시세조작 의혹 조사하라" 강원 고성, 방어 풍어에 어민 '분주' 보령시, 보고·듣고·감동하는 '청렴 문화제' 연다 눈밑지방재배치, 수술 시 상태에 맞춰 계획해야 최신뉴스 무릎인공관절 수술, 연골 손상 심각하다면 고려 성일종 의원 “서산·태안 행정안전부 특별교부세 총 55억 확보” "한컴 아로와나 코인 시세조작 의혹 조사하라" 강원 고성, 방어 풍어에 어민 '분주' 보령시, 보고·듣고·감동하는 '청렴 문화제' 연다 전국은지금 인물열전 핫플레이스 페스티벌 파워인터뷰 전국 서울 경기 인천 대전충청 세종 부산경남 대구경북 호남 강원 제주 정치 정치일반 지방정치 국민의선택 경제 경제일반 산업·기업 건설·부동산 금융·유통 농림·수산 사회 사회일반 사건·사고 현장포커스 꿀팁모음ZIP 교육 교육일반 교육행정 문화 생활·문화 스포츠 방송·연예 독자와 함께 詩(시) 읽기 나랏말싸미 사투리뉴스 수어, 함께 배워요 점자, 손끝으로 읽는 세상 국제 ESG・CSR 연구소 ESG경영 CSR가치실천 ESG・CSR 칼럼 오피니언 서길원 대기자 세상읽기 김연식의 생각이 있는 아침 한상규의 알기쉬운 회의진행 방법 칼럼 전문가 칼럼 전매만평 사설 기고 독자투고 피플 人사이드 새인물 인사 부음 동정 전국매일신문배 코리아오픈 하프파이프대회 기획특집 기획특집 기획보도 포토·영상 전매VIEW 전매TV 그래픽뉴스 종합 종합 2020 신년사 회사소개 윤리강령 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 서비스 전체보기 경기도 성남시 수정구 성남대로 1222 (수진동, 예농빌딩) 법인명 : (주)전국매일신문 제호 : 전국매일신문 등록번호 : 경기, 가00043 발행일 : 1997-06-24 등록일 : 2010-03-23 부가통신사업신고번호 : 제 2-01-22-0081 호 대표전화 : 1588-5762 팩스 : 031-758-4360 발행·편집인 : 박종문 청소년보호책임자 : 총괄이사 전석하 전국매일신문 - 전국의 생생한 뉴스를 ‘한눈에’ 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 전국매일신문 - 전국의 생생한 뉴스를 ‘한눈에’. All rights reserved. mail to jm5600@nate.com 위로</t>
+  </si>
+  <si>
+    <t>[전문] 안창남 제주도의회 문화관광체육위원장, 행정사무감사 임하는 각오 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:58 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 [전문] 안창남 제주도의회 문화관광체육위원장, 행정사무감사 임하는 각오 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 도의회 [전문] 안창남 제주도의회 문화관광체육위원장, 행정사무감사 임하는 각오 편집팀 iheadline@hanmail.net 승인 2021.10.11 11:11 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 안창남 문화관광체육위원장. ⓒ헤드라인제주 “문화·관광·체육정책의 코로나 19 대응노력 점검할 터...” 장기화되는 코로나 팬데믹 상황에서 지난 1년간 코로나로 지친 도민들을 위로하고 지역경제 활성화에 근간이 되어야 할 문화예술, 체육, 관광정책은 제대로 작동하지 못했습니다. 문화예술과 체육행사는 취소와 연기를 반복하면서 도민들의 코로나 블루 극복 노력은 물론 도내 문화예술인들의 창작활동과 생계지원에 소극적이었으며, 해외여행 대신 제주에 관광객이 집중되었지만 도민들의 코로나 확산 우려만 커졌을 뿐 코로나로 달라진 여행패턴 변화에 대한 대응은 물론 도내 관광산업의 양극화를 면치 못하면서 지역경제의 선순환 구조를 만들지 못했습니다. 이번 행정사무감사가 도지사 사퇴에 따른 권한대행 체제 속 제11대 도의회 마지막 행감인 만큼 더욱 면밀히 살펴보겠다. 연초 도의회 업무보고의 이행사항 점검과 예산집행의 효율성과 적법성 등을 꼼꼼히 따져 코로나 극복을 위해 문화·관광·체육분야의 정책추진사항과 대응노력을 심층적으로 검토하겠습니다. 앞으로 다가올 위드 코로나 시대를 준비해 철저한 방역 속에서도 문화, 예술, 체육활동이 문화예술 진흥은 물론 도민의 마음을 치유하고 건강을 활력화시키는 구심점 역할을 할 수 있도록 정책적 방안을 모색함과 동시에 제주관광 또한 질적관광으로 전환시켜 문화관광을 통해 도민일상을 회복하고 지역경제도 선순환이 될 수 있도록 행정 개선을 요구하는 정책 행감이 되도록 노력하겠습니다. 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 제주도의회 임시회 12일 개회...마지막 행정사무감사 실시 [전문] 부공남 제주도의회 교육위원장, 행정사무감사 임하는 각오 [전문] 현길호 제주도의회 농수축경제위원장, 행정사무감사 임하는 각오 [전문] 강성의 제주도의회 환경도시위원장, 행정사무감사 임하는 각오 [전문] 양영식 제주도의회 보건복지안전위원장, 행정사무감사 임하는 각오 [전문] 이상봉 제주도의회 행정자치위원장, 행정사무감사 임하는 각오 [전문] 강연호 제주도의회 부의장, 행정사무감사 임하는 각오 [전문] 정민구 제주도의회 부의장, 행정사무감사 임하는 각오 [전문] 좌남수 제주도의회 의장, 행정사무감사 임하는 각오 좌남수 의장 "행정사무감사, 잘못된 관행 과감히 털어내겠다" 제주도의회 행정사무감사 13일 시작...임기말 '고강도 감사' 예고 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 6 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 하반기 우수관광사업체 공모 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 14:55 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰청(청장 이상률)은 11일부터 '찾아가는 가해자 교화 프로그램'을 운영한다.찾아가는 가해자 교화 프로그램은 경찰서 유치장에 유치된 '고위험군 여성폭력 ... SNS P  D  F 지면보기 이전 다음 제주도, 하반기 우수관광사업체 공모 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 제주도, 하반기 우수관광사업체 공모 김지우 기자 승인 2021.10.05 14:58 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도는 8일부터 27일까지 ‘2021년 하반기 우수관광사업체’를 공모한다고 5일 밝혔다. 이번 공모는 도내 우수 관광상품과 고품격 서비스를 두루 갖춘 관광사업체를 선발하기 위해 마련됐다. 신청 대상은 도내 사업장(주소)을 둔 업체 중 영업신고(리모델링) 후 1년 이상 경과한 업체다. 신청 분야는 관광지·교통·숙박업·여행업·음식업 등 5개이며, 우수관광사업체로 지정돼 2년이 도래한 사업체는 신청을 통해 심사 후 재지정 받을 수 있다. 제주도는 관광사업체 신청 서류 등 자격요건 심사 후 전문가들로 구성된 평가위원들의 현장평가와 우수관광사업체 평정위원회 심의를 거쳐 대상업체를 선정한다. 우수관광사업체 지정 기간은 2년이며 지정서와 인증패가 주어진다. 이와 함께 제주도와 유관기관 홈페이지 게재, 사회 관계망 서비스(SNS) 홍보(블로그, 인스타그램, 유튜브 등), 리플릿, 지도 제작 및 배포를 통한 홍보 인센티브 혜택과 함께 홍보 지원금 80만원이 지급된다. 또 지정 우수관광사업체 고객만족도 조사 등 중간점검을 통해 컨설팅 및 종사자 대상 서비스 교육도 지원된다. 한편 10월 현재 도내 우수관광사업체는 68곳이다. 김지우 기자  jibregas@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 김지우 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주선수단, 전국체육대회 메달 목표 달성 3제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 10제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
   </si>
   <si>
     <t>제주도·제주관광공사·도내 여행사 공동, ‘제주관광 얼리버드 프로모션’ 본격 시동 TtL News 티티엘뉴스 Login | Join HOME. 트렌드 이슈. 산업 | 경제 | 정책. 국내여행 | 레저. 해외여행 | 레저. 엔터테인먼트. 라이프재테크. News Category 뉴스 카테고리 트렌드 이슈. 산업 | 경제 | 정책. 국내여행 | 레저. 해외여행 | 레저. 엔터테인먼트. 라이프재테크. Home 산업 | 경제 | 정책 전체보기 정부|지역 기관|협회 금융|경제 기업 항공|여행|레저 숙박|면세|유통 교역/전시/설명회 일반/단신 인바운드 목록 제주도·제주관광공사·도내 여행사 공동, ‘제주관광 얼리버드 프로모션’ 본격 시동 중화권 MZ세대 타깃 제주 로컬여행 매력 홍보 문화와 체험이 결합된 콘텐츠 홍보에 주력 2021-10-25 13:13:40							, 수정 : 2021-10-25 22:08:43							 | 이상인 선임기자 [티티엘뉴스] 위드 코로나 시대 진입을 앞두고 해외여행에 대한 관심이 높아지고 있는 가운데 중화권 MZ세대 유치를 위한‘제주관광 얼리버드 프로모션’이 추진되고 있어 귀추가 주목된다. ▲글로컬 상품 라이브 랜선여행 1차 포스터 제주특별자치도와 제주관광공사(사장 고은숙)는 포스트 코로나 대비 제주관광 재도약을 위해 중화권 시장의 체질 개선과 로컬 여행사의 경쟁력 강화를 위한 ‘글로컬((Glocal. 글로벌(Global)과 로컬(Local)의 합성어, 세계성과 지역성을 동시에 갖추고 있음) 상품 발굴’ 및 홍보 사업을 이달부터 오는 12월까지 추진하고 있다고 25일 밝혔다. 글로컬 상품은 현지의 사람, 문화, 경험을 중시하는 MZ세대(밀레니엄세대(Y세대)와 Z세대의 합성어, 1980년대~2000년 초반까지 출생한 세대)의 여행 트렌드에 맞춰 글로벌 감성과 제주만의 매력적인 콘텐츠를 바탕으로 한 여행상품으로써, 상반기 도내업계 대상 공모를 통해 최종 6개 상품이 선정됐다. 공사는 선정된 6개 상품을 활용해 제주관광 얼리버드 프로모션을 추진하고 있다. 중국 현지 유력 온라인 여행정보 플랫폼인 마펑워를 활용해 6개 상품의 라이브 랜선여행을 추진, 생동감 있는 제주여행을 소개하고, 소비자와 실시간으로 소통하면서 상품의 매력을 알리고 있다. 지난 10월 12일 진행된 제주 카라반 여행 테마의 글로컬 상품이 첫 라이브 랜선여행을 선보였으며, 카라반 여행 상품 가격은 한화 약 20여 만원의 상품으로써 90분의 라이브 중 총 307개의 제주관광 얼리버드 상품이 판매됐다. ▲글로컬 라이브 랜선여행 2차 포스터 얼리버드 상품은 프로모션 기간 중 1위안(약180원)에 사전 예약구매가 가능하며, 이후 여행 날짜를 확정한 뒤 나머지 상품의 금액을 지불하면 구매가 완료된다. 공사는 얼리버드 상품 구매 촉진을 위해, 라이브 랜선여행 중 상품을 구매하는 고객을 대상으로 다양한 경품 이벤트를 추진하고 있다. 2차 글로컬 상품 라이브 랜선여행은 10월 25일 추진된 가운데 세계지질공원 수월봉 전기자전거를 주요테마로 진행됐다. 공사는 포스트 코로나를 대비해 대만 현지 여행사와도 제주관광 얼리버드 상품 판매를 준비하고 있으며, 11월 본격 추진할 계획이다. 한편, 제주관광공사는 위드 코로나 시대 제주관광 인지도 제고를 위해 온라인을 활용한 다양한 마케팅을 전개하고 있다. 특히 MZ세대를 타깃으로 한 척 캠페인, 찐제주 캠페인을 비롯해 제주 쿠킹 클래스를 해외 현지 이원 생중계를 통해 추진하는 등 문화와 체험이 결합된 콘텐츠를 홍보하는 데 주력하고 있다. ●글로컬 상품 선정 리스트 및 라이브 랜선여행 일정 이상인 선임기자 lagolftime@ttlnews.com 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 관련기사 제주관광공사, ‘문화 향유의 공간, 탐나는 원도심’ 행사 개최 제주도·제주관광공사, ‘2021 도전! J-스타트업’ 데모데이 개최 제주관광공사, ‘숲으로오라, 어린이 환경수호대’ 개최 제주관광공사·에어서울(주), 제주관광 활성화 위한 업무협약 체결 제주관광공사, ‘하트온(HEART ON), 신산에 불을 켜다’ 개최 제주관광공사, 해양쓰레기 팝업전시 ‘필터(filter-必터)’개최 제주관광공사, ‘친환경 제로웨이스트 캠페인’ 전개 목록 엔터테인먼트 트렌드 이슈 관광항공인&amp;인터뷰 회사소개 ｜ 광고·제휴문의｜ 회원약관｜ 개인정보취급방침｜ 기사제보 | (주)여심 | 서울, 아03649 | 등록일자: 2015년 3월 25일 | 제호: 트래블투라이프(Travel to Lifestyle·티티엘뉴스) | 발행·편집인: 편성희 | 편집장: 정연비 | 청소년보호책임자: 편성희 | 발행일자: 2015년 1월 5일 편집/제작국: 02)6354-4608, ttlnews@ttlnews.com 광고/콘텐츠사업국: 02)6354-4609, ads@ttlnews.com 서울특별시 종로구 세종대로 149 광화문빌딩 20층 HJBC 2134호 티티엘뉴스는 인터넷신문위원회의 기사 및 광고부문 자율규약 준수를 동의한 서약사입니다. 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 정연비 02-6354-4608 ttlnews@ttlnews.com 티티엘뉴스의 모든 콘텐츠는 저작권법의 보호를 받은바, 무단 전재·복사·배포 등을 금합니다. Copyright by TtL news × 유투브 동영상 삽입 가이드 삽입하고자 하는 유투브 동영상의 페이지로 접속하신 후에, 동영상 밑에 있는 '공유' 버튼을 누릅니다. '공유'버튼을 누르면 나오는 탭들 중에 '소스코드'를 선택하시고 해당 소스코드를 복사하신 후 게시판에 붙여넣기 합니다. 닫기 × 뉴스 검색 닫기</t>
@@ -434,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -455,9 +545,6 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
@@ -467,7 +554,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -477,9 +564,6 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
@@ -488,6 +572,9 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
@@ -496,9 +583,6 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
@@ -508,7 +592,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -519,7 +603,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -529,9 +613,6 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
@@ -541,7 +622,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -552,7 +633,221 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
